--- a/excels/Form 1 - HSE plan.xlsx
+++ b/excels/Form 1 - HSE plan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bayu.pradika\Desktop\Project program\E-csms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ecsms\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED8E841-E3F9-47A6-9561-0F5B31ADEB31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4665" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scoring" sheetId="6" r:id="rId1"/>
@@ -19,12 +20,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'lembar kerja'!$A$2:$G$113</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">scoring!$A$1:$E$42</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="132">
   <si>
     <t>Lampiran 6 - Pedoman No. A-001/K00100/2015-S9 Rev.03</t>
   </si>
@@ -504,11 +505,23 @@
   <si>
     <t>Spv. Maintenance Plan &amp; Services</t>
   </si>
+  <si>
+    <t xml:space="preserve">Nama Kontraktor </t>
+  </si>
+  <si>
+    <t>Nama Proyek</t>
+  </si>
+  <si>
+    <t>Lokasi Proyek</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -636,7 +649,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -828,12 +841,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1131,14 +1157,6 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1179,17 +1197,30 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1206,10 +1237,6 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1320,12 +1347,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1422,6 +1456,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1457,6 +1508,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1632,19 +1700,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:E34"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="10" style="17" customWidth="1"/>
     <col min="2" max="2" width="49.140625" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" style="17" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="17" customWidth="1"/>
@@ -1662,9 +1730,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98"/>
       <c r="K1" s="74"/>
       <c r="L1" s="74"/>
       <c r="M1" s="74"/>
@@ -1681,13 +1750,13 @@
       <c r="O2" s="66"/>
     </row>
     <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
       <c r="H3" s="66"/>
       <c r="I3" s="66"/>
       <c r="J3" s="75"/>
@@ -1713,43 +1782,49 @@
       <c r="O4" s="66"/>
     </row>
     <row r="5" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="92" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="J5" s="90"/>
+      <c r="A5" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="134"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="J5" s="88"/>
     </row>
     <row r="6" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="91"/>
-      <c r="J6" s="90"/>
+      <c r="A6" s="92" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="92" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="89"/>
+      <c r="J6" s="88"/>
     </row>
     <row r="7" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="91" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="J7" s="90"/>
+      <c r="A7" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="89" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="J7" s="88"/>
     </row>
     <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
@@ -1835,7 +1910,7 @@
       <c r="A12" s="77">
         <v>3</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="83" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="71">
@@ -2072,149 +2147,156 @@
       <c r="C24" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
     </row>
     <row r="25" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="80" t="s">
+      <c r="A25" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="87">
+      <c r="B25" s="137"/>
+      <c r="C25" s="85">
         <f>SUM(E10:E23)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="88"/>
-      <c r="E25" s="89"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="87"/>
     </row>
     <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="100" t="s">
+      <c r="A27" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="100"/>
-      <c r="C27" s="100"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="101"/>
       <c r="D27" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="82"/>
+      <c r="E27" s="80"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="100"/>
-      <c r="C28" s="100"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="101"/>
       <c r="D28" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="82"/>
+      <c r="E28" s="80"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="101" t="s">
+      <c r="A29" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="82"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="80"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="102" t="s">
+      <c r="A31" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="103"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
     </row>
     <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="103"/>
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
+      <c r="A32" s="98"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
     </row>
     <row r="33" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="103"/>
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
+      <c r="A33" s="98"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
     </row>
     <row r="34" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="103"/>
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
+      <c r="A34" s="98"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="98" t="s">
+      <c r="A36" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="98"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="98"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="83" t="s">
+      <c r="A38" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="96" t="s">
+      <c r="C38" s="135" t="s">
         <v>127</v>
       </c>
-      <c r="D38" s="96"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="135"/>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="83" t="s">
+      <c r="A42" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="98" t="s">
+      <c r="C42" s="99" t="s">
         <v>125</v>
       </c>
-      <c r="D42" s="98"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="97"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="84" t="s">
+      <c r="A45" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="84"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="84"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="82"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="84" t="s">
+      <c r="A46" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="84"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="133"/>
+      <c r="D46" s="133"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="84" t="s">
+      <c r="A47" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="84"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="84"/>
+      <c r="B47" s="133"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="82"/>
     </row>
     <row r="109" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="112" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="113" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="12">
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="C38:E38"/>
     <mergeCell ref="C42:D42"/>
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A31:E34"/>
+    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.46" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="95" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2222,15 +2304,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A3:K119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
+    <sheetView showGridLines="0" topLeftCell="A89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2246,15 +2326,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
       <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -2268,43 +2348,43 @@
       <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="J5" s="90"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="J5" s="88"/>
     </row>
     <row r="6" spans="1:10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="91"/>
-      <c r="J6" s="90"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="89"/>
+      <c r="J6" s="88"/>
     </row>
     <row r="7" spans="1:10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="J7" s="90"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="J7" s="88"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="125" t="s">
@@ -2427,14 +2507,14 @@
       <c r="B17" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="133" t="s">
+      <c r="C17" s="95" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
       </c>
       <c r="E17" s="108"/>
-      <c r="F17" s="97"/>
+      <c r="F17" s="94"/>
       <c r="G17" s="111"/>
       <c r="H17" s="40"/>
     </row>
@@ -2443,14 +2523,14 @@
       <c r="B18" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="134" t="s">
+      <c r="C18" s="96" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
       </c>
       <c r="E18" s="109"/>
-      <c r="F18" s="97"/>
+      <c r="F18" s="94"/>
       <c r="G18" s="112"/>
       <c r="H18" s="46"/>
     </row>
@@ -2466,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="109"/>
-      <c r="F19" s="97"/>
+      <c r="F19" s="94"/>
       <c r="G19" s="112"/>
       <c r="H19" s="40"/>
     </row>
@@ -2482,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="110"/>
-      <c r="F20" s="97"/>
+      <c r="F20" s="94"/>
       <c r="G20" s="113"/>
       <c r="H20" s="40"/>
     </row>
@@ -2533,7 +2613,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="108"/>
-      <c r="F23" s="97"/>
+      <c r="F23" s="94"/>
       <c r="G23" s="111"/>
       <c r="H23" s="40"/>
     </row>
@@ -2549,7 +2629,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="110"/>
-      <c r="F24" s="97"/>
+      <c r="F24" s="94"/>
       <c r="G24" s="113"/>
       <c r="H24" s="40"/>
     </row>
@@ -2600,7 +2680,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="108"/>
-      <c r="F27" s="97"/>
+      <c r="F27" s="94"/>
       <c r="G27" s="111"/>
       <c r="H27" s="40"/>
     </row>
@@ -2616,7 +2696,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="109"/>
-      <c r="F28" s="97"/>
+      <c r="F28" s="94"/>
       <c r="G28" s="112"/>
       <c r="H28" s="40"/>
     </row>
@@ -2632,7 +2712,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="109"/>
-      <c r="F29" s="97"/>
+      <c r="F29" s="94"/>
       <c r="G29" s="112"/>
       <c r="H29" s="40"/>
     </row>
@@ -2648,7 +2728,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="110"/>
-      <c r="F30" s="97"/>
+      <c r="F30" s="94"/>
       <c r="G30" s="113"/>
       <c r="H30" s="40"/>
     </row>
@@ -2699,7 +2779,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="108"/>
-      <c r="F33" s="97"/>
+      <c r="F33" s="94"/>
       <c r="G33" s="111"/>
       <c r="H33" s="40"/>
     </row>
@@ -2715,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="109"/>
-      <c r="F34" s="97"/>
+      <c r="F34" s="94"/>
       <c r="G34" s="112"/>
       <c r="H34" s="40"/>
     </row>
@@ -2731,7 +2811,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="109"/>
-      <c r="F35" s="97"/>
+      <c r="F35" s="94"/>
       <c r="G35" s="112"/>
       <c r="H35" s="40"/>
     </row>
@@ -2747,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="110"/>
-      <c r="F36" s="97"/>
+      <c r="F36" s="94"/>
       <c r="G36" s="113"/>
       <c r="H36" s="40"/>
     </row>
@@ -2798,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="108"/>
-      <c r="F39" s="97"/>
+      <c r="F39" s="94"/>
       <c r="G39" s="111"/>
       <c r="H39" s="50"/>
     </row>
@@ -2814,7 +2894,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="109"/>
-      <c r="F40" s="97"/>
+      <c r="F40" s="94"/>
       <c r="G40" s="112"/>
       <c r="H40" s="40"/>
     </row>
@@ -2830,7 +2910,7 @@
         <v>2</v>
       </c>
       <c r="E41" s="109"/>
-      <c r="F41" s="97"/>
+      <c r="F41" s="94"/>
       <c r="G41" s="112"/>
       <c r="H41" s="40"/>
     </row>
@@ -2844,7 +2924,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="109"/>
-      <c r="F42" s="97"/>
+      <c r="F42" s="94"/>
       <c r="G42" s="112"/>
       <c r="H42" s="40"/>
     </row>
@@ -2858,7 +2938,7 @@
         <v>2</v>
       </c>
       <c r="E43" s="109"/>
-      <c r="F43" s="97"/>
+      <c r="F43" s="94"/>
       <c r="G43" s="112"/>
       <c r="H43" s="40"/>
     </row>
@@ -2872,7 +2952,7 @@
         <v>2</v>
       </c>
       <c r="E44" s="109"/>
-      <c r="F44" s="97"/>
+      <c r="F44" s="94"/>
       <c r="G44" s="112"/>
       <c r="H44" s="40"/>
     </row>
@@ -2886,7 +2966,7 @@
         <v>2</v>
       </c>
       <c r="E45" s="109"/>
-      <c r="F45" s="97"/>
+      <c r="F45" s="94"/>
       <c r="G45" s="112"/>
       <c r="H45" s="40"/>
     </row>
@@ -2900,7 +2980,7 @@
         <v>2</v>
       </c>
       <c r="E46" s="109"/>
-      <c r="F46" s="97"/>
+      <c r="F46" s="94"/>
       <c r="G46" s="112"/>
       <c r="H46" s="40"/>
     </row>
@@ -2914,7 +2994,7 @@
         <v>2</v>
       </c>
       <c r="E47" s="109"/>
-      <c r="F47" s="97"/>
+      <c r="F47" s="94"/>
       <c r="G47" s="112"/>
       <c r="H47" s="40"/>
     </row>
@@ -2928,7 +3008,7 @@
         <v>2</v>
       </c>
       <c r="E48" s="109"/>
-      <c r="F48" s="97"/>
+      <c r="F48" s="94"/>
       <c r="G48" s="112"/>
       <c r="H48" s="40"/>
     </row>
@@ -2942,7 +3022,7 @@
         <v>2</v>
       </c>
       <c r="E49" s="109"/>
-      <c r="F49" s="97"/>
+      <c r="F49" s="94"/>
       <c r="G49" s="112"/>
       <c r="H49" s="40"/>
     </row>
@@ -2958,7 +3038,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="109"/>
-      <c r="F50" s="97"/>
+      <c r="F50" s="94"/>
       <c r="G50" s="112"/>
       <c r="H50" s="40"/>
     </row>
@@ -2974,7 +3054,7 @@
         <v>2</v>
       </c>
       <c r="E51" s="109"/>
-      <c r="F51" s="97"/>
+      <c r="F51" s="94"/>
       <c r="G51" s="112"/>
       <c r="H51" s="40"/>
     </row>
@@ -2990,7 +3070,7 @@
         <v>2</v>
       </c>
       <c r="E52" s="109"/>
-      <c r="F52" s="97"/>
+      <c r="F52" s="94"/>
       <c r="G52" s="112"/>
       <c r="H52" s="40"/>
     </row>
@@ -3006,7 +3086,7 @@
         <v>2</v>
       </c>
       <c r="E53" s="109"/>
-      <c r="F53" s="97"/>
+      <c r="F53" s="94"/>
       <c r="G53" s="112"/>
       <c r="H53" s="40"/>
     </row>
@@ -3022,7 +3102,7 @@
         <v>2</v>
       </c>
       <c r="E54" s="109"/>
-      <c r="F54" s="97"/>
+      <c r="F54" s="94"/>
       <c r="G54" s="113"/>
       <c r="H54" s="40"/>
     </row>
@@ -3038,7 +3118,7 @@
         <v>2</v>
       </c>
       <c r="E55" s="110"/>
-      <c r="F55" s="97"/>
+      <c r="F55" s="94"/>
       <c r="G55" s="2"/>
       <c r="H55" s="40"/>
     </row>
@@ -3089,7 +3169,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="108"/>
-      <c r="F58" s="97"/>
+      <c r="F58" s="94"/>
       <c r="G58" s="111"/>
       <c r="H58" s="40"/>
     </row>
@@ -3105,7 +3185,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="109"/>
-      <c r="F59" s="97"/>
+      <c r="F59" s="94"/>
       <c r="G59" s="112"/>
       <c r="H59" s="40"/>
     </row>
@@ -3121,7 +3201,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="109"/>
-      <c r="F60" s="97"/>
+      <c r="F60" s="94"/>
       <c r="G60" s="112"/>
       <c r="H60" s="40"/>
     </row>
@@ -3137,7 +3217,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="110"/>
-      <c r="F61" s="97"/>
+      <c r="F61" s="94"/>
       <c r="G61" s="113"/>
       <c r="H61" s="40"/>
     </row>
@@ -3188,7 +3268,7 @@
         <v>2</v>
       </c>
       <c r="E64" s="108"/>
-      <c r="F64" s="97"/>
+      <c r="F64" s="94"/>
       <c r="G64" s="111"/>
       <c r="H64" s="40"/>
     </row>
@@ -3204,7 +3284,7 @@
         <v>2</v>
       </c>
       <c r="E65" s="109"/>
-      <c r="F65" s="97"/>
+      <c r="F65" s="94"/>
       <c r="G65" s="112"/>
       <c r="H65" s="40"/>
     </row>
@@ -3220,7 +3300,7 @@
         <v>2</v>
       </c>
       <c r="E66" s="109"/>
-      <c r="F66" s="97"/>
+      <c r="F66" s="94"/>
       <c r="G66" s="112"/>
       <c r="H66" s="40"/>
     </row>
@@ -3236,7 +3316,7 @@
         <v>2</v>
       </c>
       <c r="E67" s="109"/>
-      <c r="F67" s="97"/>
+      <c r="F67" s="94"/>
       <c r="G67" s="112"/>
       <c r="H67" s="40"/>
     </row>
@@ -3252,7 +3332,7 @@
         <v>1</v>
       </c>
       <c r="E68" s="110"/>
-      <c r="F68" s="97"/>
+      <c r="F68" s="94"/>
       <c r="G68" s="113"/>
       <c r="H68" s="40"/>
     </row>
@@ -3303,7 +3383,7 @@
         <v>2</v>
       </c>
       <c r="E71" s="108"/>
-      <c r="F71" s="97"/>
+      <c r="F71" s="94"/>
       <c r="G71" s="111"/>
       <c r="H71" s="40"/>
     </row>
@@ -3319,7 +3399,7 @@
         <v>2</v>
       </c>
       <c r="E72" s="109"/>
-      <c r="F72" s="97"/>
+      <c r="F72" s="94"/>
       <c r="G72" s="112"/>
       <c r="H72" s="40"/>
     </row>
@@ -3335,7 +3415,7 @@
         <v>2</v>
       </c>
       <c r="E73" s="109"/>
-      <c r="F73" s="97"/>
+      <c r="F73" s="94"/>
       <c r="G73" s="112"/>
       <c r="H73" s="40"/>
     </row>
@@ -3351,7 +3431,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="110"/>
-      <c r="F74" s="97"/>
+      <c r="F74" s="94"/>
       <c r="G74" s="113"/>
       <c r="H74" s="40"/>
     </row>
@@ -3402,7 +3482,7 @@
         <v>2</v>
       </c>
       <c r="E77" s="108"/>
-      <c r="F77" s="97"/>
+      <c r="F77" s="94"/>
       <c r="G77" s="111"/>
       <c r="H77" s="40"/>
     </row>
@@ -3418,7 +3498,7 @@
         <v>2</v>
       </c>
       <c r="E78" s="109"/>
-      <c r="F78" s="97"/>
+      <c r="F78" s="94"/>
       <c r="G78" s="112"/>
       <c r="H78" s="40"/>
     </row>
@@ -3434,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="E79" s="109"/>
-      <c r="F79" s="97"/>
+      <c r="F79" s="94"/>
       <c r="G79" s="112"/>
       <c r="H79" s="40"/>
     </row>
@@ -3450,7 +3530,7 @@
         <v>1</v>
       </c>
       <c r="E80" s="110"/>
-      <c r="F80" s="97"/>
+      <c r="F80" s="94"/>
       <c r="G80" s="113"/>
       <c r="H80" s="40"/>
     </row>
@@ -3501,7 +3581,7 @@
         <v>2</v>
       </c>
       <c r="E83" s="108"/>
-      <c r="F83" s="97"/>
+      <c r="F83" s="94"/>
       <c r="G83" s="111"/>
       <c r="H83" s="40"/>
     </row>
@@ -3517,7 +3597,7 @@
         <v>2</v>
       </c>
       <c r="E84" s="109"/>
-      <c r="F84" s="97"/>
+      <c r="F84" s="94"/>
       <c r="G84" s="112"/>
       <c r="H84" s="40"/>
     </row>
@@ -3533,7 +3613,7 @@
         <v>2</v>
       </c>
       <c r="E85" s="109"/>
-      <c r="F85" s="97"/>
+      <c r="F85" s="94"/>
       <c r="G85" s="112"/>
       <c r="H85" s="40"/>
     </row>
@@ -3549,7 +3629,7 @@
         <v>2</v>
       </c>
       <c r="E86" s="110"/>
-      <c r="F86" s="97"/>
+      <c r="F86" s="94"/>
       <c r="G86" s="113"/>
       <c r="H86" s="40"/>
     </row>
@@ -3600,7 +3680,7 @@
         <v>2</v>
       </c>
       <c r="E89" s="108"/>
-      <c r="F89" s="97"/>
+      <c r="F89" s="94"/>
       <c r="G89" s="111"/>
       <c r="H89" s="40"/>
     </row>
@@ -3616,7 +3696,7 @@
         <v>2</v>
       </c>
       <c r="E90" s="109"/>
-      <c r="F90" s="97"/>
+      <c r="F90" s="94"/>
       <c r="G90" s="112"/>
       <c r="H90" s="40"/>
     </row>
@@ -3632,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="E91" s="109"/>
-      <c r="F91" s="97"/>
+      <c r="F91" s="94"/>
       <c r="G91" s="112"/>
       <c r="H91" s="40"/>
     </row>
@@ -3648,7 +3728,7 @@
         <v>1</v>
       </c>
       <c r="E92" s="110"/>
-      <c r="F92" s="97"/>
+      <c r="F92" s="94"/>
       <c r="G92" s="113"/>
       <c r="H92" s="40"/>
     </row>
@@ -3699,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="E95" s="108"/>
-      <c r="F95" s="97"/>
+      <c r="F95" s="94"/>
       <c r="G95" s="111"/>
       <c r="H95" s="40"/>
     </row>
@@ -3715,7 +3795,7 @@
         <v>1</v>
       </c>
       <c r="E96" s="110"/>
-      <c r="F96" s="97"/>
+      <c r="F96" s="94"/>
       <c r="G96" s="113"/>
       <c r="H96" s="40"/>
     </row>
@@ -3766,7 +3846,7 @@
         <v>1</v>
       </c>
       <c r="E99" s="108"/>
-      <c r="F99" s="97"/>
+      <c r="F99" s="94"/>
       <c r="G99" s="111"/>
       <c r="H99" s="40"/>
     </row>
@@ -3782,7 +3862,7 @@
         <v>1</v>
       </c>
       <c r="E100" s="109"/>
-      <c r="F100" s="97"/>
+      <c r="F100" s="94"/>
       <c r="G100" s="112"/>
       <c r="H100" s="40"/>
     </row>
@@ -3798,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="E101" s="110"/>
-      <c r="F101" s="97"/>
+      <c r="F101" s="94"/>
       <c r="G101" s="113"/>
       <c r="H101" s="40"/>
     </row>
@@ -3849,7 +3929,7 @@
         <v>2</v>
       </c>
       <c r="E104" s="108"/>
-      <c r="F104" s="97"/>
+      <c r="F104" s="94"/>
       <c r="G104" s="111"/>
       <c r="H104" s="40"/>
     </row>
@@ -3865,7 +3945,7 @@
         <v>2</v>
       </c>
       <c r="E105" s="109"/>
-      <c r="F105" s="97"/>
+      <c r="F105" s="94"/>
       <c r="G105" s="112"/>
       <c r="H105" s="40"/>
     </row>
@@ -3881,7 +3961,7 @@
         <v>2</v>
       </c>
       <c r="E106" s="110"/>
-      <c r="F106" s="97"/>
+      <c r="F106" s="94"/>
       <c r="G106" s="113"/>
       <c r="H106" s="40"/>
     </row>
@@ -3944,13 +4024,13 @@
       <c r="B110" s="58"/>
     </row>
     <row r="111" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="100" t="s">
+      <c r="A111" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="B111" s="100"/>
-      <c r="C111" s="100"/>
-      <c r="D111" s="100"/>
-      <c r="E111" s="100"/>
+      <c r="B111" s="101"/>
+      <c r="C111" s="101"/>
+      <c r="D111" s="101"/>
+      <c r="E111" s="101"/>
       <c r="F111" s="64"/>
       <c r="G111" s="65" t="s">
         <v>20</v>
@@ -3958,13 +4038,13 @@
       <c r="H111" s="66"/>
     </row>
     <row r="112" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="100" t="s">
+      <c r="A112" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="B112" s="100"/>
-      <c r="C112" s="100"/>
-      <c r="D112" s="100"/>
-      <c r="E112" s="100"/>
+      <c r="B112" s="101"/>
+      <c r="C112" s="101"/>
+      <c r="D112" s="101"/>
+      <c r="E112" s="101"/>
       <c r="F112" s="64"/>
       <c r="G112" s="65" t="s">
         <v>21</v>
@@ -3972,15 +4052,15 @@
       <c r="H112" s="66"/>
     </row>
     <row r="113" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="101" t="s">
+      <c r="A113" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="B113" s="101"/>
-      <c r="C113" s="101"/>
-      <c r="D113" s="101"/>
-      <c r="E113" s="101"/>
-      <c r="F113" s="101"/>
-      <c r="G113" s="101"/>
+      <c r="B113" s="102"/>
+      <c r="C113" s="102"/>
+      <c r="D113" s="102"/>
+      <c r="E113" s="102"/>
+      <c r="F113" s="102"/>
+      <c r="G113" s="102"/>
       <c r="H113" s="66"/>
     </row>
     <row r="114" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.25">

--- a/excels/Form 1 - HSE plan.xlsx
+++ b/excels/Form 1 - HSE plan.xlsx
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ecsms\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED8E841-E3F9-47A6-9561-0F5B31ADEB31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4C26FF-3A3B-4693-8061-4F16CC718196}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="scoring" sheetId="6" r:id="rId1"/>
-    <sheet name="lembar kerja" sheetId="7" r:id="rId2"/>
+    <sheet name="lembar kerja" sheetId="7" r:id="rId1"/>
+    <sheet name="scoring" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'lembar kerja'!$A$2:$G$113</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">scoring!$A$1:$E$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'lembar kerja'!$A$2:$G$113</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">scoring!$A$1:$E$42</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="144">
   <si>
     <t>Lampiran 6 - Pedoman No. A-001/K00100/2015-S9 Rev.03</t>
   </si>
@@ -242,9 +242,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>Data Proyek</t>
-  </si>
-  <si>
     <t>a.</t>
   </si>
   <si>
@@ -407,9 +404,6 @@
     <t>Daftar standar yang digunakan</t>
   </si>
   <si>
-    <t>Kompetensi Pekerja yang Terlibat</t>
-  </si>
-  <si>
     <t>Penanggung jawab HSE mempunyai sertifikat nasional  atau internasional yang masih berlaku</t>
   </si>
   <si>
@@ -506,7 +500,7 @@
     <t>Spv. Maintenance Plan &amp; Services</t>
   </si>
   <si>
-    <t xml:space="preserve">Nama Kontraktor </t>
+    <t>Nama Kontraktor</t>
   </si>
   <si>
     <t>Nama Proyek</t>
@@ -516,6 +510,48 @@
   </si>
   <si>
     <t>:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Data Proyek</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HSE Policy &amp; Objective Contractor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Drug &amp; Alcohol Policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Struktur Organisasi Proyek</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HSE Performance Indicator (KPI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Work Site Hazard &amp; Risk Assessment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Transport Safety Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prosedur Operasi &amp; Standard Keselamatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kompetensi Pekerja yang Terlibat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HSE Audit / Inspection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prosedur Pelaporan &amp; Investigasi Kecelakaan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HSE Communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pengelolaan Sub Kontraktor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pemeriksaan Kesehatan</t>
   </si>
 </sst>
 </file>
@@ -649,7 +685,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -841,25 +877,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -938,14 +961,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1155,6 +1170,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
@@ -1197,6 +1220,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1213,38 +1239,26 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -1271,14 +1285,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1339,27 +1345,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1700,641 +1706,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:O113"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10" style="17" customWidth="1"/>
-    <col min="2" max="2" width="49.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="7" style="17" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="27.42578125" style="17" customWidth="1"/>
-    <col min="11" max="11" width="27.140625" style="17" customWidth="1"/>
-    <col min="12" max="12" width="31" style="17" customWidth="1"/>
-    <col min="13" max="13" width="28.140625" style="17" customWidth="1"/>
-    <col min="14" max="14" width="26.140625" style="17" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-    </row>
-    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="100" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="66"/>
-    </row>
-    <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="66"/>
-    </row>
-    <row r="5" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="90" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="90" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="J5" s="88"/>
-    </row>
-    <row r="6" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="92" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="92" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="89"/>
-      <c r="J6" s="88"/>
-    </row>
-    <row r="7" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="89" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="J7" s="88"/>
-    </row>
-    <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="66"/>
-    </row>
-    <row r="9" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="49"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-    </row>
-    <row r="10" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="77">
-        <v>1</v>
-      </c>
-      <c r="B10" s="78" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="D10" s="72">
-        <f>'lembar kerja'!F21</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="73">
-        <f>'lembar kerja'!G21</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="79"/>
-    </row>
-    <row r="11" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="77">
-        <v>2</v>
-      </c>
-      <c r="B11" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="D11" s="72">
-        <f>'lembar kerja'!F25</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="73">
-        <f>'lembar kerja'!G25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="77">
-        <v>3</v>
-      </c>
-      <c r="B12" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="D12" s="72">
-        <f>'lembar kerja'!F31</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="73">
-        <f>'lembar kerja'!G31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="41" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="77">
-        <v>4</v>
-      </c>
-      <c r="B13" s="78" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="D13" s="72">
-        <f>'lembar kerja'!F37</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="73">
-        <f>'lembar kerja'!G37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="77">
-        <v>5</v>
-      </c>
-      <c r="B14" s="78" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="71">
-        <v>0.25</v>
-      </c>
-      <c r="D14" s="72">
-        <f>'lembar kerja'!F56</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="73">
-        <f>'lembar kerja'!G56</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="79"/>
-    </row>
-    <row r="15" spans="1:15" s="41" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="77">
-        <v>6</v>
-      </c>
-      <c r="B15" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="D15" s="72">
-        <f>'lembar kerja'!F62</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="73">
-        <f>'lembar kerja'!G62</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="41" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="77">
-        <v>7</v>
-      </c>
-      <c r="B16" s="78" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="D16" s="72">
-        <f>'lembar kerja'!F69</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="73">
-        <f>'lembar kerja'!G69</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="41" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="77">
-        <v>8</v>
-      </c>
-      <c r="B17" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="D17" s="72">
-        <f>'lembar kerja'!F75</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="73">
-        <f>'lembar kerja'!G75</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="41" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="77">
-        <v>9</v>
-      </c>
-      <c r="B18" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="D18" s="72">
-        <f>'lembar kerja'!F81</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="73">
-        <f>'lembar kerja'!G81</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="41" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="77">
-        <v>10</v>
-      </c>
-      <c r="B19" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="D19" s="72">
-        <f>'lembar kerja'!F87</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="73">
-        <f>'lembar kerja'!G87</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="41" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="77">
-        <v>11</v>
-      </c>
-      <c r="B20" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="D20" s="72">
-        <f>'lembar kerja'!F93</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="73">
-        <f>'lembar kerja'!G93</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="17"/>
-    </row>
-    <row r="21" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="77">
-        <v>12</v>
-      </c>
-      <c r="B21" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="D21" s="72">
-        <f>'lembar kerja'!F97</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="73">
-        <f>'lembar kerja'!G97</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="17"/>
-    </row>
-    <row r="22" spans="1:11" s="41" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="77">
-        <v>13</v>
-      </c>
-      <c r="B22" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="D22" s="72">
-        <f>'lembar kerja'!F102</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="73">
-        <f>'lembar kerja'!G102</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="77">
-        <v>14</v>
-      </c>
-      <c r="B23" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="D23" s="72">
-        <f>'lembar kerja'!F107</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="73">
-        <f>'lembar kerja'!G107</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="77">
-        <v>15</v>
-      </c>
-      <c r="B24" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-    </row>
-    <row r="25" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="136" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="137"/>
-      <c r="C25" s="85">
-        <f>SUM(E10:E23)</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="87"/>
-    </row>
-    <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="101" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="101"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="80"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="101" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="80"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="102" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="102"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="80"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="103" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="98"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-    </row>
-    <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="98"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98"/>
-    </row>
-    <row r="33" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="98"/>
-      <c r="B33" s="98"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="98"/>
-    </row>
-    <row r="34" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="98"/>
-      <c r="B34" s="98"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="98"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="99" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="99"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="81" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" s="135" t="s">
-        <v>127</v>
-      </c>
-      <c r="D38" s="135"/>
-      <c r="E38" s="135"/>
-    </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" s="99" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="99"/>
-      <c r="E42" s="97"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="82"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="82"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="133" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" s="133"/>
-      <c r="C46" s="133"/>
-      <c r="D46" s="133"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="133" t="s">
-        <v>32</v>
-      </c>
-      <c r="B47" s="133"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="82"/>
-    </row>
-    <row r="109" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A31:E34"/>
-    <mergeCell ref="A25:B25"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.46" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="95" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A3:K119"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" style="68" customWidth="1"/>
-    <col min="3" max="3" width="67.5703125" style="59" customWidth="1"/>
-    <col min="4" max="4" width="10" style="60" customWidth="1"/>
-    <col min="5" max="5" width="10" style="61" customWidth="1"/>
-    <col min="6" max="6" width="10" style="62" customWidth="1"/>
-    <col min="7" max="7" width="10" style="63" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="66" customWidth="1"/>
+    <col min="3" max="3" width="67.5703125" style="57" customWidth="1"/>
+    <col min="4" max="4" width="10" style="58" customWidth="1"/>
+    <col min="5" max="5" width="10" style="59" customWidth="1"/>
+    <col min="6" max="6" width="10" style="60" customWidth="1"/>
+    <col min="7" max="7" width="10" style="61" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="17" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
       <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -2348,66 +1750,72 @@
       <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="90" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
+      <c r="A5" s="127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="127"/>
+      <c r="C5" s="128" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
       <c r="H5" s="93"/>
       <c r="J5" s="88"/>
     </row>
     <row r="6" spans="1:10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="89" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="91"/>
+      <c r="A6" s="128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
       <c r="H6" s="89"/>
       <c r="J6" s="88"/>
     </row>
     <row r="7" spans="1:10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
+      <c r="A7" s="128" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
       <c r="H7" s="89"/>
       <c r="J7" s="88"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="127" t="s">
+      <c r="B9" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="131" t="s">
+      <c r="C9" s="124"/>
+      <c r="D9" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="132"/>
-      <c r="F9" s="131" t="s">
+      <c r="E9" s="129"/>
+      <c r="F9" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="132"/>
+      <c r="G9" s="129"/>
       <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="126"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="130"/>
+      <c r="A10" s="122"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="126"/>
       <c r="D10" s="19" t="s">
         <v>37</v>
       </c>
@@ -2426,150 +1834,150 @@
       <c r="A11" s="23">
         <v>1</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="25"/>
+      <c r="B11" s="104" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="105"/>
       <c r="D11" s="23"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="23"/>
       <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="D12" s="112"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="116"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="22"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="D13" s="115"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="119"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="22"/>
-    </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29" t="s">
+      <c r="C14" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="D14" s="118"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34">
+        <v>2</v>
+      </c>
+      <c r="B16" s="131" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="132"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="38"/>
+    </row>
+    <row r="17" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="96" t="s">
         <v>46</v>
-      </c>
-      <c r="D14" s="122"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="22"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="22"/>
-    </row>
-    <row r="16" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36">
-        <v>2</v>
-      </c>
-      <c r="B16" s="114" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="115"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="40"/>
-    </row>
-    <row r="17" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="95" t="s">
-        <v>47</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
       </c>
-      <c r="E17" s="108"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="40"/>
-    </row>
-    <row r="18" spans="1:8" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="44" t="s">
+      <c r="E17" s="106"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="38"/>
+    </row>
+    <row r="18" spans="1:8" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="97" t="s">
         <v>48</v>
-      </c>
-      <c r="C18" s="96" t="s">
-        <v>49</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="E18" s="109"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="46"/>
-    </row>
-    <row r="19" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="107"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="44"/>
+    </row>
+    <row r="19" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
-      <c r="B19" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>50</v>
+      <c r="B19" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>49</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
       </c>
-      <c r="E19" s="109"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="40"/>
-    </row>
-    <row r="20" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="107"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="38"/>
+    </row>
+    <row r="20" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="46" t="s">
         <v>51</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>52</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
       </c>
-      <c r="E20" s="110"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="40"/>
-    </row>
-    <row r="21" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="108"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="38"/>
+    </row>
+    <row r="21" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="4">
         <f>SUM(D17:D20)</f>
         <v>4</v>
@@ -2585,58 +1993,58 @@
         <f>(F21/D21)*E21</f>
         <v>0</v>
       </c>
-      <c r="H21" s="40"/>
-    </row>
-    <row r="22" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36">
+      <c r="H21" s="38"/>
+    </row>
+    <row r="22" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="34">
         <v>3</v>
       </c>
-      <c r="B22" s="114" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="115"/>
+      <c r="B22" s="131" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="132"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="40"/>
-    </row>
-    <row r="23" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="68"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="38"/>
+    </row>
+    <row r="23" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
-      <c r="B23" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>53</v>
+      <c r="B23" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>52</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
       </c>
-      <c r="E23" s="108"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="40"/>
-    </row>
-    <row r="24" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="106"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="38"/>
+    </row>
+    <row r="24" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
-      <c r="B24" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="48" t="s">
-        <v>54</v>
+      <c r="B24" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>53</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
       </c>
-      <c r="E24" s="110"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="40"/>
-    </row>
-    <row r="25" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="108"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="38"/>
+    </row>
+    <row r="25" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="48"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="4">
         <f>SUM(D23:D24)</f>
         <v>2</v>
@@ -2652,90 +2060,90 @@
         <f>(F25/D25)*E25</f>
         <v>0</v>
       </c>
-      <c r="H25" s="40"/>
-    </row>
-    <row r="26" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36">
+      <c r="H25" s="38"/>
+    </row>
+    <row r="26" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="34">
         <v>4</v>
       </c>
-      <c r="B26" s="114" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="115"/>
+      <c r="B26" s="131" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="132"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="40"/>
-    </row>
-    <row r="27" spans="1:8" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="E26" s="68"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="38"/>
+    </row>
+    <row r="27" spans="1:8" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
-      <c r="B27" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="48" t="s">
-        <v>55</v>
+      <c r="B27" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>54</v>
       </c>
       <c r="D27" s="2">
         <v>2</v>
       </c>
-      <c r="E27" s="108"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="40"/>
-    </row>
-    <row r="28" spans="1:8" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="E27" s="106"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="38"/>
+    </row>
+    <row r="28" spans="1:8" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="48" t="s">
-        <v>56</v>
+      <c r="B28" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>55</v>
       </c>
       <c r="D28" s="2">
         <v>2</v>
       </c>
-      <c r="E28" s="109"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="40"/>
-    </row>
-    <row r="29" spans="1:8" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="E28" s="107"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="38"/>
+    </row>
+    <row r="29" spans="1:8" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
-      <c r="B29" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="48" t="s">
-        <v>57</v>
+      <c r="B29" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>56</v>
       </c>
       <c r="D29" s="2">
         <v>2</v>
       </c>
-      <c r="E29" s="109"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="40"/>
-    </row>
-    <row r="30" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="107"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="38"/>
+    </row>
+    <row r="30" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
-      <c r="B30" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="48" t="s">
-        <v>58</v>
+      <c r="B30" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>57</v>
       </c>
       <c r="D30" s="2">
         <v>2</v>
       </c>
-      <c r="E30" s="110"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="40"/>
-    </row>
-    <row r="31" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="108"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="38"/>
+    </row>
+    <row r="31" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="48"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="4">
         <f>SUM(D27:D30)</f>
         <v>8</v>
@@ -2751,90 +2159,90 @@
         <f>(F31/D31)*E31</f>
         <v>0</v>
       </c>
-      <c r="H31" s="40"/>
-    </row>
-    <row r="32" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36">
+      <c r="H31" s="38"/>
+    </row>
+    <row r="32" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="34">
         <v>5</v>
       </c>
-      <c r="B32" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="115"/>
+      <c r="B32" s="131" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="132"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="40"/>
-    </row>
-    <row r="33" spans="1:8" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="E32" s="68"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="38"/>
+    </row>
+    <row r="33" spans="1:8" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
-      <c r="B33" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="48" t="s">
-        <v>59</v>
+      <c r="B33" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>58</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
       </c>
-      <c r="E33" s="108"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="40"/>
-    </row>
-    <row r="34" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="106"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="38"/>
+    </row>
+    <row r="34" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
-      <c r="B34" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="48" t="s">
-        <v>60</v>
+      <c r="B34" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>59</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
       </c>
-      <c r="E34" s="109"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="112"/>
-      <c r="H34" s="40"/>
-    </row>
-    <row r="35" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="107"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="38"/>
+    </row>
+    <row r="35" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
-      <c r="B35" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="48" t="s">
-        <v>61</v>
+      <c r="B35" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>60</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
       </c>
-      <c r="E35" s="109"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="40"/>
-    </row>
-    <row r="36" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="107"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="38"/>
+    </row>
+    <row r="36" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
-      <c r="B36" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="45" t="s">
-        <v>62</v>
+      <c r="B36" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>61</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
       </c>
-      <c r="E36" s="110"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="113"/>
-      <c r="H36" s="40"/>
-    </row>
-    <row r="37" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="108"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="111"/>
+      <c r="H36" s="38"/>
+    </row>
+    <row r="37" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="48"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="46"/>
       <c r="D37" s="4">
         <f>SUM(D33:D36)</f>
         <v>4</v>
@@ -2850,282 +2258,282 @@
         <f>(F37/D37)*E37</f>
         <v>0</v>
       </c>
-      <c r="H37" s="40"/>
-    </row>
-    <row r="38" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="36">
+      <c r="H37" s="38"/>
+    </row>
+    <row r="38" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="34">
         <v>6</v>
       </c>
-      <c r="B38" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="107"/>
+      <c r="B38" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="105"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="40"/>
-    </row>
-    <row r="39" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="68"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="38"/>
+    </row>
+    <row r="39" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
-      <c r="B39" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="49" t="s">
-        <v>63</v>
+      <c r="B39" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="47" t="s">
+        <v>62</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
       </c>
-      <c r="E39" s="108"/>
-      <c r="F39" s="94"/>
-      <c r="G39" s="111"/>
-      <c r="H39" s="50"/>
-    </row>
-    <row r="40" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="106"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="109"/>
+      <c r="H39" s="48"/>
+    </row>
+    <row r="40" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
-      <c r="B40" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="51" t="s">
-        <v>64</v>
+      <c r="B40" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>63</v>
       </c>
       <c r="D40" s="2">
         <v>2</v>
       </c>
-      <c r="E40" s="109"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="112"/>
-      <c r="H40" s="40"/>
-    </row>
-    <row r="41" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="107"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="110"/>
+      <c r="H40" s="38"/>
+    </row>
+    <row r="41" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
-      <c r="B41" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="51" t="s">
-        <v>65</v>
+      <c r="B41" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>64</v>
       </c>
       <c r="D41" s="2">
         <v>2</v>
       </c>
-      <c r="E41" s="109"/>
-      <c r="F41" s="94"/>
-      <c r="G41" s="112"/>
-      <c r="H41" s="40"/>
-    </row>
-    <row r="42" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="107"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="110"/>
+      <c r="H41" s="38"/>
+    </row>
+    <row r="42" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
-      <c r="B42" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="51" t="s">
+      <c r="B42" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="38"/>
+    </row>
+    <row r="43" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="50" t="s">
         <v>66</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="109"/>
-      <c r="F42" s="94"/>
-      <c r="G42" s="112"/>
-      <c r="H42" s="40"/>
-    </row>
-    <row r="43" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="52" t="s">
-        <v>67</v>
       </c>
       <c r="D43" s="2">
         <v>2</v>
       </c>
-      <c r="E43" s="109"/>
-      <c r="F43" s="94"/>
-      <c r="G43" s="112"/>
-      <c r="H43" s="40"/>
-    </row>
-    <row r="44" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E43" s="108"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="111"/>
+      <c r="H43" s="38"/>
+    </row>
+    <row r="44" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="52" t="s">
-        <v>68</v>
+      <c r="B44" s="45"/>
+      <c r="C44" s="50" t="s">
+        <v>67</v>
       </c>
       <c r="D44" s="2">
         <v>2</v>
       </c>
-      <c r="E44" s="109"/>
-      <c r="F44" s="94"/>
-      <c r="G44" s="112"/>
-      <c r="H44" s="40"/>
-    </row>
-    <row r="45" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="106"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="109"/>
+      <c r="H44" s="38"/>
+    </row>
+    <row r="45" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="52" t="s">
-        <v>69</v>
+      <c r="B45" s="45"/>
+      <c r="C45" s="50" t="s">
+        <v>68</v>
       </c>
       <c r="D45" s="2">
         <v>2</v>
       </c>
-      <c r="E45" s="109"/>
-      <c r="F45" s="94"/>
-      <c r="G45" s="112"/>
-      <c r="H45" s="40"/>
-    </row>
-    <row r="46" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="107"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="38"/>
+    </row>
+    <row r="46" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="52" t="s">
-        <v>70</v>
+      <c r="B46" s="45"/>
+      <c r="C46" s="50" t="s">
+        <v>69</v>
       </c>
       <c r="D46" s="2">
         <v>2</v>
       </c>
-      <c r="E46" s="109"/>
-      <c r="F46" s="94"/>
-      <c r="G46" s="112"/>
-      <c r="H46" s="40"/>
-    </row>
-    <row r="47" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E46" s="107"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="38"/>
+    </row>
+    <row r="47" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="52" t="s">
-        <v>71</v>
+      <c r="B47" s="45"/>
+      <c r="C47" s="50" t="s">
+        <v>70</v>
       </c>
       <c r="D47" s="2">
         <v>2</v>
       </c>
-      <c r="E47" s="109"/>
-      <c r="F47" s="94"/>
-      <c r="G47" s="112"/>
-      <c r="H47" s="40"/>
-    </row>
-    <row r="48" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E47" s="107"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="38"/>
+    </row>
+    <row r="48" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="52" t="s">
-        <v>72</v>
+      <c r="B48" s="45"/>
+      <c r="C48" s="50" t="s">
+        <v>71</v>
       </c>
       <c r="D48" s="2">
         <v>2</v>
       </c>
-      <c r="E48" s="109"/>
-      <c r="F48" s="94"/>
-      <c r="G48" s="112"/>
-      <c r="H48" s="40"/>
-    </row>
-    <row r="49" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E48" s="107"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="110"/>
+      <c r="H48" s="38"/>
+    </row>
+    <row r="49" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="52" t="s">
-        <v>73</v>
+      <c r="B49" s="45"/>
+      <c r="C49" s="50" t="s">
+        <v>72</v>
       </c>
       <c r="D49" s="2">
         <v>2</v>
       </c>
-      <c r="E49" s="109"/>
-      <c r="F49" s="94"/>
-      <c r="G49" s="112"/>
-      <c r="H49" s="40"/>
-    </row>
-    <row r="50" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E49" s="107"/>
+      <c r="F49" s="95"/>
+      <c r="G49" s="110"/>
+      <c r="H49" s="38"/>
+    </row>
+    <row r="50" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
-      <c r="B50" s="47" t="s">
+      <c r="B50" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="46" t="s">
         <v>74</v>
-      </c>
-      <c r="C50" s="48" t="s">
-        <v>75</v>
       </c>
       <c r="D50" s="2">
         <v>2</v>
       </c>
-      <c r="E50" s="109"/>
-      <c r="F50" s="94"/>
-      <c r="G50" s="112"/>
-      <c r="H50" s="40"/>
-    </row>
-    <row r="51" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E50" s="107"/>
+      <c r="F50" s="95"/>
+      <c r="G50" s="110"/>
+      <c r="H50" s="38"/>
+    </row>
+    <row r="51" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
-      <c r="B51" s="47" t="s">
+      <c r="B51" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="46" t="s">
         <v>76</v>
-      </c>
-      <c r="C51" s="48" t="s">
-        <v>77</v>
       </c>
       <c r="D51" s="2">
         <v>2</v>
       </c>
-      <c r="E51" s="109"/>
-      <c r="F51" s="94"/>
-      <c r="G51" s="112"/>
-      <c r="H51" s="40"/>
-    </row>
-    <row r="52" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E51" s="107"/>
+      <c r="F51" s="95"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="38"/>
+    </row>
+    <row r="52" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
-      <c r="B52" s="47" t="s">
+      <c r="B52" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="49" t="s">
         <v>78</v>
-      </c>
-      <c r="C52" s="51" t="s">
-        <v>79</v>
       </c>
       <c r="D52" s="2">
         <v>2</v>
       </c>
-      <c r="E52" s="109"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="112"/>
-      <c r="H52" s="40"/>
-    </row>
-    <row r="53" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E52" s="107"/>
+      <c r="F52" s="95"/>
+      <c r="G52" s="110"/>
+      <c r="H52" s="38"/>
+    </row>
+    <row r="53" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
-      <c r="B53" s="47" t="s">
+      <c r="B53" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="49" t="s">
         <v>80</v>
-      </c>
-      <c r="C53" s="51" t="s">
-        <v>81</v>
       </c>
       <c r="D53" s="2">
         <v>2</v>
       </c>
-      <c r="E53" s="109"/>
-      <c r="F53" s="94"/>
-      <c r="G53" s="112"/>
-      <c r="H53" s="40"/>
-    </row>
-    <row r="54" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E53" s="107"/>
+      <c r="F53" s="95"/>
+      <c r="G53" s="110"/>
+      <c r="H53" s="38"/>
+    </row>
+    <row r="54" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
-      <c r="B54" s="47" t="s">
+      <c r="B54" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="49" t="s">
         <v>82</v>
-      </c>
-      <c r="C54" s="51" t="s">
-        <v>83</v>
       </c>
       <c r="D54" s="2">
         <v>2</v>
       </c>
-      <c r="E54" s="109"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="113"/>
-      <c r="H54" s="40"/>
-    </row>
-    <row r="55" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E54" s="107"/>
+      <c r="F54" s="95"/>
+      <c r="G54" s="110"/>
+      <c r="H54" s="38"/>
+    </row>
+    <row r="55" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
-      <c r="B55" s="47" t="s">
+      <c r="B55" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="49" t="s">
         <v>84</v>
-      </c>
-      <c r="C55" s="51" t="s">
-        <v>85</v>
       </c>
       <c r="D55" s="2">
         <v>2</v>
       </c>
-      <c r="E55" s="110"/>
-      <c r="F55" s="94"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="40"/>
-    </row>
-    <row r="56" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E55" s="108"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="111"/>
+      <c r="H55" s="38"/>
+    </row>
+    <row r="56" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="51"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="49"/>
       <c r="D56" s="4">
         <f>SUM(D39:D55)</f>
         <v>31</v>
@@ -3141,90 +2549,90 @@
         <f>(F56/D56)*E56</f>
         <v>0</v>
       </c>
-      <c r="H56" s="40"/>
-    </row>
-    <row r="57" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="36">
+      <c r="H56" s="38"/>
+    </row>
+    <row r="57" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="34">
         <v>7</v>
       </c>
-      <c r="B57" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="107"/>
+      <c r="B57" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" s="105"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="40"/>
-    </row>
-    <row r="58" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E57" s="68"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="38"/>
+    </row>
+    <row r="58" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
-      <c r="B58" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58" s="48" t="s">
-        <v>86</v>
+      <c r="B58" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="46" t="s">
+        <v>85</v>
       </c>
       <c r="D58" s="2">
         <v>1</v>
       </c>
-      <c r="E58" s="108"/>
-      <c r="F58" s="94"/>
-      <c r="G58" s="111"/>
-      <c r="H58" s="40"/>
-    </row>
-    <row r="59" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E58" s="106"/>
+      <c r="F58" s="95"/>
+      <c r="G58" s="109"/>
+      <c r="H58" s="38"/>
+    </row>
+    <row r="59" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
-      <c r="B59" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C59" s="48" t="s">
-        <v>87</v>
+      <c r="B59" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" s="46" t="s">
+        <v>86</v>
       </c>
       <c r="D59" s="2">
         <v>1</v>
       </c>
-      <c r="E59" s="109"/>
-      <c r="F59" s="94"/>
-      <c r="G59" s="112"/>
-      <c r="H59" s="40"/>
-    </row>
-    <row r="60" spans="1:8" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="E59" s="107"/>
+      <c r="F59" s="95"/>
+      <c r="G59" s="110"/>
+      <c r="H59" s="38"/>
+    </row>
+    <row r="60" spans="1:8" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
-      <c r="B60" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C60" s="48" t="s">
-        <v>88</v>
+      <c r="B60" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="46" t="s">
+        <v>87</v>
       </c>
       <c r="D60" s="2">
         <v>1</v>
       </c>
-      <c r="E60" s="109"/>
-      <c r="F60" s="94"/>
-      <c r="G60" s="112"/>
-      <c r="H60" s="40"/>
-    </row>
-    <row r="61" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E60" s="107"/>
+      <c r="F60" s="95"/>
+      <c r="G60" s="110"/>
+      <c r="H60" s="38"/>
+    </row>
+    <row r="61" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
-      <c r="B61" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C61" s="45" t="s">
-        <v>89</v>
+      <c r="B61" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="D61" s="3">
         <v>1</v>
       </c>
-      <c r="E61" s="110"/>
-      <c r="F61" s="94"/>
-      <c r="G61" s="113"/>
-      <c r="H61" s="40"/>
-    </row>
-    <row r="62" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E61" s="108"/>
+      <c r="F61" s="95"/>
+      <c r="G61" s="111"/>
+      <c r="H61" s="38"/>
+    </row>
+    <row r="62" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
-      <c r="B62" s="47"/>
-      <c r="C62" s="48"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="46"/>
       <c r="D62" s="4">
         <f>SUM(D58:D61)</f>
         <v>4</v>
@@ -3240,106 +2648,106 @@
         <f>(F62/D62)*E62</f>
         <v>0</v>
       </c>
-      <c r="H62" s="40"/>
-    </row>
-    <row r="63" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="36">
+      <c r="H62" s="38"/>
+    </row>
+    <row r="63" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="34">
         <v>8</v>
       </c>
-      <c r="B63" s="106" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="107"/>
+      <c r="B63" s="104" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="105"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="40"/>
-    </row>
-    <row r="64" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E63" s="68"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="38"/>
+    </row>
+    <row r="64" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
-      <c r="B64" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C64" s="53" t="s">
-        <v>90</v>
+      <c r="B64" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="51" t="s">
+        <v>89</v>
       </c>
       <c r="D64" s="2">
         <v>2</v>
       </c>
-      <c r="E64" s="108"/>
-      <c r="F64" s="94"/>
-      <c r="G64" s="111"/>
-      <c r="H64" s="40"/>
-    </row>
-    <row r="65" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E64" s="106"/>
+      <c r="F64" s="95"/>
+      <c r="G64" s="109"/>
+      <c r="H64" s="38"/>
+    </row>
+    <row r="65" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
-      <c r="B65" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C65" s="53" t="s">
-        <v>91</v>
+      <c r="B65" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" s="51" t="s">
+        <v>90</v>
       </c>
       <c r="D65" s="2">
         <v>2</v>
       </c>
-      <c r="E65" s="109"/>
-      <c r="F65" s="94"/>
-      <c r="G65" s="112"/>
-      <c r="H65" s="40"/>
-    </row>
-    <row r="66" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E65" s="107"/>
+      <c r="F65" s="95"/>
+      <c r="G65" s="110"/>
+      <c r="H65" s="38"/>
+    </row>
+    <row r="66" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
-      <c r="B66" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C66" s="48" t="s">
-        <v>92</v>
+      <c r="B66" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="46" t="s">
+        <v>91</v>
       </c>
       <c r="D66" s="2">
         <v>2</v>
       </c>
-      <c r="E66" s="109"/>
-      <c r="F66" s="94"/>
-      <c r="G66" s="112"/>
-      <c r="H66" s="40"/>
-    </row>
-    <row r="67" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E66" s="107"/>
+      <c r="F66" s="95"/>
+      <c r="G66" s="110"/>
+      <c r="H66" s="38"/>
+    </row>
+    <row r="67" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
-      <c r="B67" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C67" s="48" t="s">
-        <v>93</v>
+      <c r="B67" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" s="46" t="s">
+        <v>92</v>
       </c>
       <c r="D67" s="2">
         <v>2</v>
       </c>
-      <c r="E67" s="109"/>
-      <c r="F67" s="94"/>
-      <c r="G67" s="112"/>
-      <c r="H67" s="40"/>
-    </row>
-    <row r="68" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E67" s="107"/>
+      <c r="F67" s="95"/>
+      <c r="G67" s="110"/>
+      <c r="H67" s="38"/>
+    </row>
+    <row r="68" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
-      <c r="B68" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68" s="48" t="s">
-        <v>94</v>
+      <c r="B68" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="46" t="s">
+        <v>93</v>
       </c>
       <c r="D68" s="2">
         <v>1</v>
       </c>
-      <c r="E68" s="110"/>
-      <c r="F68" s="94"/>
-      <c r="G68" s="113"/>
-      <c r="H68" s="40"/>
-    </row>
-    <row r="69" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E68" s="108"/>
+      <c r="F68" s="95"/>
+      <c r="G68" s="111"/>
+      <c r="H68" s="38"/>
+    </row>
+    <row r="69" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
-      <c r="B69" s="47"/>
-      <c r="C69" s="48"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="46"/>
       <c r="D69" s="4">
         <f>SUM(D64:D68)</f>
         <v>9</v>
@@ -3355,90 +2763,90 @@
         <f>(F69/D69)*E69</f>
         <v>0</v>
       </c>
-      <c r="H69" s="40"/>
-    </row>
-    <row r="70" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="36">
+      <c r="H69" s="38"/>
+    </row>
+    <row r="70" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="34">
         <v>9</v>
       </c>
-      <c r="B70" s="106" t="s">
-        <v>95</v>
-      </c>
-      <c r="C70" s="107"/>
+      <c r="B70" s="104" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" s="105"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="40"/>
-    </row>
-    <row r="71" spans="1:8" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="E70" s="68"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="38"/>
+    </row>
+    <row r="71" spans="1:8" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
-      <c r="B71" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C71" s="54" t="s">
-        <v>96</v>
+      <c r="B71" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" s="52" t="s">
+        <v>94</v>
       </c>
       <c r="D71" s="2">
         <v>2</v>
       </c>
-      <c r="E71" s="108"/>
-      <c r="F71" s="94"/>
-      <c r="G71" s="111"/>
-      <c r="H71" s="40"/>
-    </row>
-    <row r="72" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E71" s="106"/>
+      <c r="F71" s="95"/>
+      <c r="G71" s="109"/>
+      <c r="H71" s="38"/>
+    </row>
+    <row r="72" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
-      <c r="B72" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C72" s="53" t="s">
-        <v>97</v>
+      <c r="B72" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72" s="51" t="s">
+        <v>95</v>
       </c>
       <c r="D72" s="2">
         <v>2</v>
       </c>
-      <c r="E72" s="109"/>
-      <c r="F72" s="94"/>
-      <c r="G72" s="112"/>
-      <c r="H72" s="40"/>
-    </row>
-    <row r="73" spans="1:8" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="E72" s="107"/>
+      <c r="F72" s="95"/>
+      <c r="G72" s="110"/>
+      <c r="H72" s="38"/>
+    </row>
+    <row r="73" spans="1:8" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
-      <c r="B73" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C73" s="48" t="s">
-        <v>98</v>
+      <c r="B73" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73" s="46" t="s">
+        <v>96</v>
       </c>
       <c r="D73" s="2">
         <v>2</v>
       </c>
-      <c r="E73" s="109"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="112"/>
-      <c r="H73" s="40"/>
-    </row>
-    <row r="74" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E73" s="107"/>
+      <c r="F73" s="95"/>
+      <c r="G73" s="110"/>
+      <c r="H73" s="38"/>
+    </row>
+    <row r="74" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
-      <c r="B74" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C74" s="30" t="s">
-        <v>99</v>
+      <c r="B74" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>97</v>
       </c>
       <c r="D74" s="3">
         <v>1</v>
       </c>
-      <c r="E74" s="110"/>
-      <c r="F74" s="94"/>
-      <c r="G74" s="113"/>
-      <c r="H74" s="40"/>
-    </row>
-    <row r="75" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E74" s="108"/>
+      <c r="F74" s="95"/>
+      <c r="G74" s="111"/>
+      <c r="H74" s="38"/>
+    </row>
+    <row r="75" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
-      <c r="B75" s="47"/>
-      <c r="C75" s="51"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="49"/>
       <c r="D75" s="4">
         <f>SUM(D71:D74)</f>
         <v>7</v>
@@ -3454,90 +2862,90 @@
         <f>(F75/D75)*E75</f>
         <v>0</v>
       </c>
-      <c r="H75" s="40"/>
-    </row>
-    <row r="76" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="36">
+      <c r="H75" s="38"/>
+    </row>
+    <row r="76" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="34">
         <v>10</v>
       </c>
-      <c r="B76" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" s="107"/>
+      <c r="B76" s="104" t="s">
+        <v>139</v>
+      </c>
+      <c r="C76" s="105"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="39"/>
-      <c r="G76" s="70"/>
-      <c r="H76" s="40"/>
-    </row>
-    <row r="77" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E76" s="68"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="68"/>
+      <c r="H76" s="38"/>
+    </row>
+    <row r="77" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="15"/>
-      <c r="B77" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C77" s="48" t="s">
-        <v>100</v>
+      <c r="B77" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77" s="46" t="s">
+        <v>98</v>
       </c>
       <c r="D77" s="2">
         <v>2</v>
       </c>
-      <c r="E77" s="108"/>
-      <c r="F77" s="94"/>
-      <c r="G77" s="111"/>
-      <c r="H77" s="40"/>
-    </row>
-    <row r="78" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E77" s="106"/>
+      <c r="F77" s="95"/>
+      <c r="G77" s="109"/>
+      <c r="H77" s="38"/>
+    </row>
+    <row r="78" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15"/>
-      <c r="B78" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C78" s="48" t="s">
-        <v>101</v>
+      <c r="B78" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C78" s="46" t="s">
+        <v>99</v>
       </c>
       <c r="D78" s="2">
         <v>2</v>
       </c>
-      <c r="E78" s="109"/>
-      <c r="F78" s="94"/>
-      <c r="G78" s="112"/>
-      <c r="H78" s="40"/>
-    </row>
-    <row r="79" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E78" s="107"/>
+      <c r="F78" s="95"/>
+      <c r="G78" s="110"/>
+      <c r="H78" s="38"/>
+    </row>
+    <row r="79" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="15"/>
-      <c r="B79" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C79" s="48" t="s">
-        <v>102</v>
+      <c r="B79" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C79" s="46" t="s">
+        <v>100</v>
       </c>
       <c r="D79" s="2">
         <v>1</v>
       </c>
-      <c r="E79" s="109"/>
-      <c r="F79" s="94"/>
-      <c r="G79" s="112"/>
-      <c r="H79" s="40"/>
-    </row>
-    <row r="80" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E79" s="107"/>
+      <c r="F79" s="95"/>
+      <c r="G79" s="110"/>
+      <c r="H79" s="38"/>
+    </row>
+    <row r="80" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="15"/>
-      <c r="B80" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C80" s="48" t="s">
-        <v>103</v>
+      <c r="B80" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" s="46" t="s">
+        <v>101</v>
       </c>
       <c r="D80" s="2">
         <v>1</v>
       </c>
-      <c r="E80" s="110"/>
-      <c r="F80" s="94"/>
-      <c r="G80" s="113"/>
-      <c r="H80" s="40"/>
-    </row>
-    <row r="81" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E80" s="108"/>
+      <c r="F80" s="95"/>
+      <c r="G80" s="111"/>
+      <c r="H80" s="38"/>
+    </row>
+    <row r="81" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="15"/>
-      <c r="B81" s="47"/>
-      <c r="C81" s="48"/>
+      <c r="B81" s="45"/>
+      <c r="C81" s="46"/>
       <c r="D81" s="4">
         <f>SUM(D77:D80)</f>
         <v>6</v>
@@ -3553,90 +2961,90 @@
         <f>(F81/D81)*E81</f>
         <v>0</v>
       </c>
-      <c r="H81" s="40"/>
-    </row>
-    <row r="82" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="36">
+      <c r="H81" s="38"/>
+    </row>
+    <row r="82" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="34">
         <v>11</v>
       </c>
-      <c r="B82" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="107"/>
+      <c r="B82" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="C82" s="105"/>
       <c r="D82" s="1"/>
-      <c r="E82" s="70"/>
-      <c r="F82" s="39"/>
-      <c r="G82" s="70"/>
-      <c r="H82" s="40"/>
-    </row>
-    <row r="83" spans="1:8" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="E82" s="68"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="68"/>
+      <c r="H82" s="38"/>
+    </row>
+    <row r="83" spans="1:8" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="15"/>
-      <c r="B83" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C83" s="48" t="s">
-        <v>104</v>
+      <c r="B83" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="D83" s="2">
         <v>2</v>
       </c>
-      <c r="E83" s="108"/>
-      <c r="F83" s="94"/>
-      <c r="G83" s="111"/>
-      <c r="H83" s="40"/>
-    </row>
-    <row r="84" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E83" s="106"/>
+      <c r="F83" s="95"/>
+      <c r="G83" s="109"/>
+      <c r="H83" s="38"/>
+    </row>
+    <row r="84" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="15"/>
-      <c r="B84" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C84" s="48" t="s">
-        <v>105</v>
+      <c r="B84" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="D84" s="2">
         <v>2</v>
       </c>
-      <c r="E84" s="109"/>
-      <c r="F84" s="94"/>
-      <c r="G84" s="112"/>
-      <c r="H84" s="40"/>
-    </row>
-    <row r="85" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E84" s="107"/>
+      <c r="F84" s="95"/>
+      <c r="G84" s="110"/>
+      <c r="H84" s="38"/>
+    </row>
+    <row r="85" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="15"/>
-      <c r="B85" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C85" s="48" t="s">
-        <v>106</v>
+      <c r="B85" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85" s="46" t="s">
+        <v>104</v>
       </c>
       <c r="D85" s="2">
         <v>2</v>
       </c>
-      <c r="E85" s="109"/>
-      <c r="F85" s="94"/>
-      <c r="G85" s="112"/>
-      <c r="H85" s="40"/>
-    </row>
-    <row r="86" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E85" s="108"/>
+      <c r="F85" s="95"/>
+      <c r="G85" s="111"/>
+      <c r="H85" s="38"/>
+    </row>
+    <row r="86" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="15"/>
-      <c r="B86" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C86" s="45" t="s">
-        <v>107</v>
+      <c r="B86" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C86" s="43" t="s">
+        <v>105</v>
       </c>
       <c r="D86" s="2">
         <v>2</v>
       </c>
-      <c r="E86" s="110"/>
-      <c r="F86" s="94"/>
-      <c r="G86" s="113"/>
-      <c r="H86" s="40"/>
-    </row>
-    <row r="87" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E86" s="130"/>
+      <c r="F86" s="95"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="38"/>
+    </row>
+    <row r="87" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="15"/>
-      <c r="B87" s="47"/>
-      <c r="C87" s="48"/>
+      <c r="B87" s="45"/>
+      <c r="C87" s="46"/>
       <c r="D87" s="4">
         <f>SUM(D83:D86)</f>
         <v>8</v>
@@ -3652,90 +3060,90 @@
         <f>(F87/D87)*E87</f>
         <v>0</v>
       </c>
-      <c r="H87" s="40"/>
-    </row>
-    <row r="88" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="36">
+      <c r="H87" s="38"/>
+    </row>
+    <row r="88" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="34">
         <v>12</v>
       </c>
-      <c r="B88" s="106" t="s">
+      <c r="B88" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="C88" s="107"/>
+      <c r="C88" s="105"/>
       <c r="D88" s="1"/>
-      <c r="E88" s="70"/>
-      <c r="F88" s="39"/>
-      <c r="G88" s="38"/>
-      <c r="H88" s="40"/>
-    </row>
-    <row r="89" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E88" s="68"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="38"/>
+    </row>
+    <row r="89" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="15"/>
-      <c r="B89" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C89" s="51" t="s">
-        <v>108</v>
+      <c r="B89" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89" s="49" t="s">
+        <v>106</v>
       </c>
       <c r="D89" s="2">
         <v>2</v>
       </c>
-      <c r="E89" s="108"/>
-      <c r="F89" s="94"/>
-      <c r="G89" s="111"/>
-      <c r="H89" s="40"/>
-    </row>
-    <row r="90" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E89" s="106"/>
+      <c r="F89" s="95"/>
+      <c r="G89" s="109"/>
+      <c r="H89" s="38"/>
+    </row>
+    <row r="90" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="15"/>
-      <c r="B90" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C90" s="51" t="s">
-        <v>109</v>
+      <c r="B90" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90" s="49" t="s">
+        <v>107</v>
       </c>
       <c r="D90" s="2">
         <v>2</v>
       </c>
-      <c r="E90" s="109"/>
-      <c r="F90" s="94"/>
-      <c r="G90" s="112"/>
-      <c r="H90" s="40"/>
-    </row>
-    <row r="91" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E90" s="107"/>
+      <c r="F90" s="95"/>
+      <c r="G90" s="110"/>
+      <c r="H90" s="38"/>
+    </row>
+    <row r="91" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="15"/>
-      <c r="B91" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C91" s="51" t="s">
-        <v>110</v>
+      <c r="B91" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C91" s="49" t="s">
+        <v>108</v>
       </c>
       <c r="D91" s="2">
         <v>1</v>
       </c>
-      <c r="E91" s="109"/>
-      <c r="F91" s="94"/>
-      <c r="G91" s="112"/>
-      <c r="H91" s="40"/>
-    </row>
-    <row r="92" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E91" s="107"/>
+      <c r="F91" s="95"/>
+      <c r="G91" s="110"/>
+      <c r="H91" s="38"/>
+    </row>
+    <row r="92" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="15"/>
-      <c r="B92" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C92" s="51" t="s">
-        <v>111</v>
+      <c r="B92" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C92" s="49" t="s">
+        <v>109</v>
       </c>
       <c r="D92" s="2">
         <v>1</v>
       </c>
-      <c r="E92" s="110"/>
-      <c r="F92" s="94"/>
-      <c r="G92" s="113"/>
-      <c r="H92" s="40"/>
-    </row>
-    <row r="93" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E92" s="108"/>
+      <c r="F92" s="95"/>
+      <c r="G92" s="111"/>
+      <c r="H92" s="38"/>
+    </row>
+    <row r="93" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15"/>
-      <c r="B93" s="47"/>
-      <c r="C93" s="51"/>
+      <c r="B93" s="45"/>
+      <c r="C93" s="49"/>
       <c r="D93" s="4">
         <f>SUM(D89:D92)</f>
         <v>6</v>
@@ -3751,58 +3159,58 @@
         <f>(F93/D93)*E93</f>
         <v>0</v>
       </c>
-      <c r="H93" s="40"/>
-    </row>
-    <row r="94" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="36">
+      <c r="H93" s="38"/>
+    </row>
+    <row r="94" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="34">
         <v>13</v>
       </c>
-      <c r="B94" s="106" t="s">
-        <v>13</v>
-      </c>
-      <c r="C94" s="107"/>
+      <c r="B94" s="104" t="s">
+        <v>141</v>
+      </c>
+      <c r="C94" s="105"/>
       <c r="D94" s="1"/>
-      <c r="E94" s="70"/>
-      <c r="F94" s="39"/>
-      <c r="G94" s="70"/>
-      <c r="H94" s="40"/>
-    </row>
-    <row r="95" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E94" s="68"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="68"/>
+      <c r="H94" s="38"/>
+    </row>
+    <row r="95" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="15"/>
-      <c r="B95" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C95" s="55" t="s">
-        <v>112</v>
+      <c r="B95" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95" s="53" t="s">
+        <v>110</v>
       </c>
       <c r="D95" s="2">
         <v>1</v>
       </c>
-      <c r="E95" s="108"/>
-      <c r="F95" s="94"/>
-      <c r="G95" s="111"/>
-      <c r="H95" s="40"/>
-    </row>
-    <row r="96" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E95" s="106"/>
+      <c r="F95" s="95"/>
+      <c r="G95" s="109"/>
+      <c r="H95" s="38"/>
+    </row>
+    <row r="96" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="15"/>
-      <c r="B96" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C96" s="48" t="s">
-        <v>113</v>
+      <c r="B96" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" s="46" t="s">
+        <v>111</v>
       </c>
       <c r="D96" s="2">
         <v>1</v>
       </c>
-      <c r="E96" s="110"/>
-      <c r="F96" s="94"/>
-      <c r="G96" s="113"/>
-      <c r="H96" s="40"/>
-    </row>
-    <row r="97" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E96" s="108"/>
+      <c r="F96" s="95"/>
+      <c r="G96" s="111"/>
+      <c r="H96" s="38"/>
+    </row>
+    <row r="97" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15"/>
-      <c r="B97" s="47"/>
-      <c r="C97" s="48"/>
+      <c r="B97" s="45"/>
+      <c r="C97" s="46"/>
       <c r="D97" s="4">
         <f>SUM(D95:D96)</f>
         <v>2</v>
@@ -3818,74 +3226,74 @@
         <f>(F97/D97)*E97</f>
         <v>0</v>
       </c>
-      <c r="H97" s="40"/>
-    </row>
-    <row r="98" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="36">
+      <c r="H97" s="38"/>
+    </row>
+    <row r="98" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="34">
         <v>14</v>
       </c>
-      <c r="B98" s="106" t="s">
-        <v>14</v>
-      </c>
-      <c r="C98" s="107"/>
+      <c r="B98" s="104" t="s">
+        <v>142</v>
+      </c>
+      <c r="C98" s="105"/>
       <c r="D98" s="1"/>
-      <c r="E98" s="70"/>
-      <c r="F98" s="39"/>
-      <c r="G98" s="70"/>
-      <c r="H98" s="40"/>
-    </row>
-    <row r="99" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E98" s="68"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="68"/>
+      <c r="H98" s="38"/>
+    </row>
+    <row r="99" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="15"/>
-      <c r="B99" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C99" s="48" t="s">
-        <v>114</v>
+      <c r="B99" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C99" s="46" t="s">
+        <v>112</v>
       </c>
       <c r="D99" s="2">
         <v>1</v>
       </c>
-      <c r="E99" s="108"/>
-      <c r="F99" s="94"/>
-      <c r="G99" s="111"/>
-      <c r="H99" s="40"/>
-    </row>
-    <row r="100" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E99" s="106"/>
+      <c r="F99" s="95"/>
+      <c r="G99" s="109"/>
+      <c r="H99" s="38"/>
+    </row>
+    <row r="100" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="15"/>
-      <c r="B100" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C100" s="48" t="s">
-        <v>115</v>
+      <c r="B100" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C100" s="46" t="s">
+        <v>113</v>
       </c>
       <c r="D100" s="2">
         <v>1</v>
       </c>
-      <c r="E100" s="109"/>
-      <c r="F100" s="94"/>
-      <c r="G100" s="112"/>
-      <c r="H100" s="40"/>
-    </row>
-    <row r="101" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E100" s="107"/>
+      <c r="F100" s="95"/>
+      <c r="G100" s="110"/>
+      <c r="H100" s="38"/>
+    </row>
+    <row r="101" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="15"/>
-      <c r="B101" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C101" s="48" t="s">
-        <v>116</v>
+      <c r="B101" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C101" s="46" t="s">
+        <v>114</v>
       </c>
       <c r="D101" s="2">
         <v>1</v>
       </c>
-      <c r="E101" s="110"/>
-      <c r="F101" s="94"/>
-      <c r="G101" s="113"/>
-      <c r="H101" s="40"/>
-    </row>
-    <row r="102" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E101" s="108"/>
+      <c r="F101" s="95"/>
+      <c r="G101" s="111"/>
+      <c r="H101" s="38"/>
+    </row>
+    <row r="102" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="15"/>
-      <c r="B102" s="47"/>
-      <c r="C102" s="48"/>
+      <c r="B102" s="45"/>
+      <c r="C102" s="46"/>
       <c r="D102" s="4">
         <f>SUM(D99:D101)</f>
         <v>3</v>
@@ -3901,74 +3309,74 @@
         <f>(F102/D102)*E102</f>
         <v>0</v>
       </c>
-      <c r="H102" s="40"/>
-    </row>
-    <row r="103" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="36">
+      <c r="H102" s="38"/>
+    </row>
+    <row r="103" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="34">
         <v>15</v>
       </c>
-      <c r="B103" s="106" t="s">
-        <v>15</v>
-      </c>
-      <c r="C103" s="107"/>
+      <c r="B103" s="104" t="s">
+        <v>143</v>
+      </c>
+      <c r="C103" s="105"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="70"/>
-      <c r="F103" s="39"/>
-      <c r="G103" s="70"/>
-      <c r="H103" s="40"/>
-    </row>
-    <row r="104" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="43"/>
-      <c r="B104" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C104" s="30" t="s">
-        <v>117</v>
+      <c r="E103" s="68"/>
+      <c r="F103" s="37"/>
+      <c r="G103" s="68"/>
+      <c r="H103" s="38"/>
+    </row>
+    <row r="104" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="41"/>
+      <c r="B104" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C104" s="28" t="s">
+        <v>115</v>
       </c>
       <c r="D104" s="2">
         <v>2</v>
       </c>
-      <c r="E104" s="108"/>
-      <c r="F104" s="94"/>
-      <c r="G104" s="111"/>
-      <c r="H104" s="40"/>
-    </row>
-    <row r="105" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="43"/>
-      <c r="B105" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C105" s="30" t="s">
-        <v>118</v>
+      <c r="E104" s="106"/>
+      <c r="F104" s="95"/>
+      <c r="G104" s="109"/>
+      <c r="H104" s="38"/>
+    </row>
+    <row r="105" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="41"/>
+      <c r="B105" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C105" s="28" t="s">
+        <v>116</v>
       </c>
       <c r="D105" s="2">
         <v>2</v>
       </c>
-      <c r="E105" s="109"/>
-      <c r="F105" s="94"/>
-      <c r="G105" s="112"/>
-      <c r="H105" s="40"/>
-    </row>
-    <row r="106" spans="1:8" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="43"/>
-      <c r="B106" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="C106" s="45" t="s">
-        <v>119</v>
+      <c r="E105" s="107"/>
+      <c r="F105" s="95"/>
+      <c r="G105" s="110"/>
+      <c r="H105" s="38"/>
+    </row>
+    <row r="106" spans="1:8" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="41"/>
+      <c r="B106" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C106" s="43" t="s">
+        <v>117</v>
       </c>
       <c r="D106" s="2">
         <v>2</v>
       </c>
-      <c r="E106" s="110"/>
-      <c r="F106" s="94"/>
-      <c r="G106" s="113"/>
-      <c r="H106" s="40"/>
-    </row>
-    <row r="107" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="43"/>
-      <c r="B107" s="44"/>
-      <c r="C107" s="30"/>
+      <c r="E106" s="108"/>
+      <c r="F106" s="95"/>
+      <c r="G106" s="111"/>
+      <c r="H106" s="38"/>
+    </row>
+    <row r="107" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="41"/>
+      <c r="B107" s="42"/>
+      <c r="C107" s="28"/>
       <c r="D107" s="11">
         <f>SUM(D104:D106)</f>
         <v>6</v>
@@ -3984,12 +3392,12 @@
         <f>(F107/D107)*E107</f>
         <v>0</v>
       </c>
-      <c r="H107" s="40"/>
-    </row>
-    <row r="108" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H107" s="38"/>
+    </row>
+    <row r="108" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="15"/>
-      <c r="B108" s="56"/>
-      <c r="C108" s="51"/>
+      <c r="B108" s="54"/>
+      <c r="C108" s="49"/>
       <c r="D108" s="13">
         <f>D21+D25+D31+D37+D56+D62+D69+D75+D81+D87+D93+D97+D102+D107</f>
         <v>100</v>
@@ -4006,107 +3414,114 @@
         <f>G21+G25+G31+G37+G56+G62+G69+G75+G81+G87+G93+G97+G102+G107</f>
         <v>0</v>
       </c>
-      <c r="H108" s="40"/>
-    </row>
-    <row r="109" spans="1:8" s="41" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="104" t="s">
+      <c r="H108" s="38"/>
+    </row>
+    <row r="109" spans="1:8" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="B109" s="105"/>
-      <c r="C109" s="105"/>
-      <c r="D109" s="105"/>
-      <c r="E109" s="105"/>
-      <c r="F109" s="105"/>
-      <c r="G109" s="105"/>
-      <c r="H109" s="57"/>
+      <c r="B109" s="133"/>
+      <c r="C109" s="133"/>
+      <c r="D109" s="133"/>
+      <c r="E109" s="133"/>
+      <c r="F109" s="133"/>
+      <c r="G109" s="133"/>
+      <c r="H109" s="55"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="58"/>
+      <c r="B110" s="56"/>
     </row>
     <row r="111" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="101" t="s">
+      <c r="A111" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="B111" s="101"/>
-      <c r="C111" s="101"/>
-      <c r="D111" s="101"/>
-      <c r="E111" s="101"/>
-      <c r="F111" s="64"/>
-      <c r="G111" s="65" t="s">
+      <c r="B111" s="100"/>
+      <c r="C111" s="100"/>
+      <c r="D111" s="100"/>
+      <c r="E111" s="100"/>
+      <c r="F111" s="62"/>
+      <c r="G111" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="H111" s="66"/>
+      <c r="H111" s="64"/>
     </row>
     <row r="112" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="101" t="s">
+      <c r="A112" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B112" s="101"/>
-      <c r="C112" s="101"/>
-      <c r="D112" s="101"/>
-      <c r="E112" s="101"/>
-      <c r="F112" s="64"/>
-      <c r="G112" s="65" t="s">
+      <c r="B112" s="100"/>
+      <c r="C112" s="100"/>
+      <c r="D112" s="100"/>
+      <c r="E112" s="100"/>
+      <c r="F112" s="62"/>
+      <c r="G112" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="H112" s="66"/>
+      <c r="H112" s="64"/>
     </row>
     <row r="113" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="102" t="s">
+      <c r="A113" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="B113" s="102"/>
-      <c r="C113" s="102"/>
-      <c r="D113" s="102"/>
-      <c r="E113" s="102"/>
-      <c r="F113" s="102"/>
-      <c r="G113" s="102"/>
-      <c r="H113" s="66"/>
-    </row>
-    <row r="114" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="101"/>
+      <c r="C113" s="101"/>
+      <c r="D113" s="101"/>
+      <c r="E113" s="101"/>
+      <c r="F113" s="101"/>
+      <c r="G113" s="101"/>
+      <c r="H113" s="64"/>
+    </row>
+    <row r="114" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="17"/>
-      <c r="B114" s="58"/>
-      <c r="C114" s="59"/>
-      <c r="E114" s="61"/>
-      <c r="F114" s="62"/>
-      <c r="G114" s="63"/>
+      <c r="B114" s="56"/>
+      <c r="C114" s="57"/>
+      <c r="E114" s="59"/>
+      <c r="F114" s="60"/>
+      <c r="G114" s="61"/>
       <c r="H114" s="17"/>
       <c r="I114" s="17"/>
       <c r="J114" s="17"/>
       <c r="K114" s="17"/>
     </row>
-    <row r="115" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="17"/>
-      <c r="B115" s="67"/>
-      <c r="C115" s="59"/>
-      <c r="E115" s="61"/>
-      <c r="F115" s="62"/>
-      <c r="G115" s="63"/>
+      <c r="B115" s="65"/>
+      <c r="C115" s="57"/>
+      <c r="E115" s="59"/>
+      <c r="F115" s="60"/>
+      <c r="G115" s="61"/>
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
       <c r="J115" s="17"/>
       <c r="K115" s="17"/>
     </row>
-    <row r="119" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="17"/>
-      <c r="B119" s="68"/>
-      <c r="C119" s="69"/>
-      <c r="E119" s="61"/>
-      <c r="F119" s="62"/>
-      <c r="G119" s="63"/>
+      <c r="B119" s="66"/>
+      <c r="C119" s="67"/>
+      <c r="E119" s="59"/>
+      <c r="F119" s="60"/>
+      <c r="G119" s="61"/>
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
       <c r="J119" s="17"/>
       <c r="K119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="61">
     <mergeCell ref="D12:G14"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:C10"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="E17:E20"/>
     <mergeCell ref="G17:G20"/>
@@ -4120,11 +3535,13 @@
     <mergeCell ref="E33:E36"/>
     <mergeCell ref="G33:G36"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="E39:E55"/>
-    <mergeCell ref="G39:G54"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="E58:E61"/>
     <mergeCell ref="G58:G61"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="E44:E55"/>
+    <mergeCell ref="G44:G55"/>
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="E64:E68"/>
     <mergeCell ref="G64:G68"/>
@@ -4135,8 +3552,8 @@
     <mergeCell ref="E77:E80"/>
     <mergeCell ref="G77:G80"/>
     <mergeCell ref="B82:C82"/>
-    <mergeCell ref="E83:E86"/>
-    <mergeCell ref="G83:G86"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="G83:G85"/>
     <mergeCell ref="B88:C88"/>
     <mergeCell ref="E89:E92"/>
     <mergeCell ref="G89:G92"/>
@@ -4156,6 +3573,594 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O113"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="49.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="7" style="17" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" style="17" customWidth="1"/>
+    <col min="12" max="12" width="31" style="17" customWidth="1"/>
+    <col min="13" max="13" width="28.140625" style="17" customWidth="1"/>
+    <col min="14" max="14" width="26.140625" style="17" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="64"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="64"/>
+    </row>
+    <row r="5" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="90" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="J5" s="88"/>
+    </row>
+    <row r="6" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="91"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="89"/>
+      <c r="J6" s="88"/>
+    </row>
+    <row r="7" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="J7" s="88"/>
+    </row>
+    <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="64"/>
+    </row>
+    <row r="9" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+    </row>
+    <row r="10" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="75">
+        <v>1</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="69">
+        <v>0.05</v>
+      </c>
+      <c r="D10" s="70">
+        <f>'lembar kerja'!F21</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="71">
+        <f>'lembar kerja'!G21</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="77"/>
+    </row>
+    <row r="11" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="75">
+        <v>2</v>
+      </c>
+      <c r="B11" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="69">
+        <v>0.05</v>
+      </c>
+      <c r="D11" s="70">
+        <f>'lembar kerja'!F25</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="71">
+        <f>'lembar kerja'!G25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="75">
+        <v>3</v>
+      </c>
+      <c r="B12" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="69">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="70">
+        <f>'lembar kerja'!F31</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="71">
+        <f>'lembar kerja'!G31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="75">
+        <v>4</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="69">
+        <v>0.05</v>
+      </c>
+      <c r="D13" s="70">
+        <f>'lembar kerja'!F37</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="71">
+        <f>'lembar kerja'!G37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="75">
+        <v>5</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="69">
+        <v>0.25</v>
+      </c>
+      <c r="D14" s="70">
+        <f>'lembar kerja'!F56</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="71">
+        <f>'lembar kerja'!G56</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="77"/>
+    </row>
+    <row r="15" spans="1:15" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="75">
+        <v>6</v>
+      </c>
+      <c r="B15" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="69">
+        <v>0.05</v>
+      </c>
+      <c r="D15" s="70">
+        <f>'lembar kerja'!F62</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="71">
+        <f>'lembar kerja'!G62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="75">
+        <v>7</v>
+      </c>
+      <c r="B16" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="69">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="70">
+        <f>'lembar kerja'!F69</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="71">
+        <f>'lembar kerja'!G69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="75">
+        <v>8</v>
+      </c>
+      <c r="B17" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="69">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="70">
+        <f>'lembar kerja'!F75</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="71">
+        <f>'lembar kerja'!G75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="75">
+        <v>9</v>
+      </c>
+      <c r="B18" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="69">
+        <v>0.05</v>
+      </c>
+      <c r="D18" s="70">
+        <f>'lembar kerja'!F81</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="71">
+        <f>'lembar kerja'!G81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="75">
+        <v>10</v>
+      </c>
+      <c r="B19" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="69">
+        <v>0.05</v>
+      </c>
+      <c r="D19" s="70">
+        <f>'lembar kerja'!F87</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="71">
+        <f>'lembar kerja'!G87</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="75">
+        <v>11</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="69">
+        <v>0.05</v>
+      </c>
+      <c r="D20" s="70">
+        <f>'lembar kerja'!F93</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="71">
+        <f>'lembar kerja'!G93</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="75">
+        <v>12</v>
+      </c>
+      <c r="B21" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="69">
+        <v>0.05</v>
+      </c>
+      <c r="D21" s="70">
+        <f>'lembar kerja'!F97</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="71">
+        <f>'lembar kerja'!G97</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="17"/>
+    </row>
+    <row r="22" spans="1:11" s="39" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="75">
+        <v>13</v>
+      </c>
+      <c r="B22" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="69">
+        <v>0.05</v>
+      </c>
+      <c r="D22" s="70">
+        <f>'lembar kerja'!F102</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="71">
+        <f>'lembar kerja'!G102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="75">
+        <v>14</v>
+      </c>
+      <c r="B23" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="69">
+        <v>0.05</v>
+      </c>
+      <c r="D23" s="70">
+        <f>'lembar kerja'!F107</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="71">
+        <f>'lembar kerja'!G107</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="75">
+        <v>15</v>
+      </c>
+      <c r="B24" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+    </row>
+    <row r="25" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="79"/>
+      <c r="C25" s="85">
+        <f>SUM(E10:E23)</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="86"/>
+      <c r="E25" s="87"/>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="100"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="80"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="100"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="80"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="80"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="102" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="103"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+    </row>
+    <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="103"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+    </row>
+    <row r="33" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="103"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="103"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="98" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="98"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="98"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="94"/>
+    </row>
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="98" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="98"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="82"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="82"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="82"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="82"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="82"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="82"/>
+    </row>
+    <row r="109" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A31:E34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.46" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="95" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/excels/Form 1 - HSE plan.xlsx
+++ b/excels/Form 1 - HSE plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ecsms\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/ecsms/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4C26FF-3A3B-4693-8061-4F16CC718196}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF27A295-DC45-D246-BF50-04F41A803444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lembar kerja" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'lembar kerja'!$A$2:$G$113</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">scoring!$A$1:$E$42</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -882,7 +882,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1132,10 +1132,6 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1235,22 +1231,124 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
@@ -1259,113 +1357,43 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1710,36 +1738,38 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:K119"/>
+  <dimension ref="A3:K180"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A105" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="66" customWidth="1"/>
-    <col min="3" max="3" width="67.5703125" style="57" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="66" customWidth="1"/>
+    <col min="3" max="3" width="67.5" style="57" customWidth="1"/>
     <col min="4" max="4" width="10" style="58" customWidth="1"/>
     <col min="5" max="5" width="10" style="59" customWidth="1"/>
     <col min="6" max="6" width="10" style="60" customWidth="1"/>
     <col min="7" max="7" width="10" style="61" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="17" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="17"/>
+    <col min="8" max="8" width="9.1640625" style="17" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="99" t="s">
+    <row r="3" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -1749,73 +1779,73 @@
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="127" t="s">
+    <row r="5" spans="1:10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="131" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="127"/>
-      <c r="C5" s="128" t="s">
+      <c r="B5" s="131"/>
+      <c r="C5" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="93"/>
-      <c r="J5" s="88"/>
-    </row>
-    <row r="6" spans="1:10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="128" t="s">
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="92"/>
+      <c r="J5" s="87"/>
+    </row>
+    <row r="6" spans="1:10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="131" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128" t="s">
+      <c r="B6" s="131"/>
+      <c r="C6" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="89"/>
-      <c r="J6" s="88"/>
-    </row>
-    <row r="7" spans="1:10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="128" t="s">
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="88"/>
+      <c r="J6" s="87"/>
+    </row>
+    <row r="7" spans="1:10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="131" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="128"/>
-      <c r="C7" s="128" t="s">
+      <c r="B7" s="131"/>
+      <c r="C7" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="89"/>
-      <c r="J7" s="88"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="121" t="s">
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="88"/>
+      <c r="J7" s="87"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="124"/>
-      <c r="D9" s="129" t="s">
+      <c r="C9" s="111"/>
+      <c r="D9" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129" t="s">
+      <c r="E9" s="114"/>
+      <c r="F9" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="129"/>
+      <c r="G9" s="114"/>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="122"/>
-      <c r="B10" s="125"/>
-      <c r="C10" s="126"/>
+    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="109"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="113"/>
       <c r="D10" s="19" t="s">
         <v>37</v>
       </c>
@@ -1830,21 +1860,21 @@
       </c>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>1</v>
       </c>
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="116" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="105"/>
+      <c r="C11" s="117"/>
       <c r="D11" s="23"/>
       <c r="E11" s="24"/>
       <c r="F11" s="25"/>
       <c r="G11" s="23"/>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="26"/>
       <c r="B12" s="27" t="s">
         <v>40</v>
@@ -1852,13 +1882,13 @@
       <c r="C12" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="112"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="114"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="100"/>
       <c r="H12" s="22"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="26"/>
       <c r="B13" s="27" t="s">
         <v>42</v>
@@ -1866,13 +1896,13 @@
       <c r="C13" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="115"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="117"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="103"/>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="26"/>
       <c r="B14" s="27" t="s">
         <v>44</v>
@@ -1880,13 +1910,13 @@
       <c r="C14" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="118"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="120"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="106"/>
       <c r="H14" s="22"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="26"/>
       <c r="B15" s="30"/>
       <c r="C15" s="31"/>
@@ -1896,53 +1926,53 @@
       <c r="G15" s="26"/>
       <c r="H15" s="22"/>
     </row>
-    <row r="16" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
         <v>2</v>
       </c>
-      <c r="B16" s="131" t="s">
+      <c r="B16" s="118" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="132"/>
+      <c r="C16" s="119"/>
       <c r="D16" s="35"/>
       <c r="E16" s="36"/>
       <c r="F16" s="37"/>
       <c r="G16" s="36"/>
       <c r="H16" s="38"/>
     </row>
-    <row r="17" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="96" t="s">
+      <c r="C17" s="95" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
       </c>
-      <c r="E17" s="106"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="109"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="123"/>
       <c r="H17" s="38"/>
     </row>
-    <row r="18" spans="1:8" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="41"/>
       <c r="B18" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="97" t="s">
+      <c r="C18" s="96" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="E18" s="107"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="110"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="124"/>
       <c r="H18" s="44"/>
     </row>
-    <row r="19" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="45" t="s">
         <v>44</v>
@@ -1953,12 +1983,12 @@
       <c r="D19" s="2">
         <v>1</v>
       </c>
-      <c r="E19" s="107"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="110"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="124"/>
       <c r="H19" s="38"/>
     </row>
-    <row r="20" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="45" t="s">
         <v>50</v>
@@ -1969,12 +1999,12 @@
       <c r="D20" s="2">
         <v>1</v>
       </c>
-      <c r="E20" s="108"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="111"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="125"/>
       <c r="H20" s="38"/>
     </row>
-    <row r="21" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="45"/>
       <c r="C21" s="46"/>
@@ -1995,21 +2025,21 @@
       </c>
       <c r="H21" s="38"/>
     </row>
-    <row r="22" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="34">
         <v>3</v>
       </c>
-      <c r="B22" s="131" t="s">
+      <c r="B22" s="118" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="132"/>
+      <c r="C22" s="119"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="68"/>
+      <c r="E22" s="67"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="68"/>
+      <c r="G22" s="67"/>
       <c r="H22" s="38"/>
     </row>
-    <row r="23" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="45" t="s">
         <v>40</v>
@@ -2020,12 +2050,12 @@
       <c r="D23" s="2">
         <v>1</v>
       </c>
-      <c r="E23" s="106"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="109"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="137"/>
       <c r="H23" s="38"/>
     </row>
-    <row r="24" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="45" t="s">
         <v>42</v>
@@ -2036,12 +2066,12 @@
       <c r="D24" s="2">
         <v>1</v>
       </c>
-      <c r="E24" s="108"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="111"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="137"/>
       <c r="H24" s="38"/>
     </row>
-    <row r="25" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="45"/>
       <c r="C25" s="46"/>
@@ -2062,21 +2092,21 @@
       </c>
       <c r="H25" s="38"/>
     </row>
-    <row r="26" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="34">
         <v>4</v>
       </c>
-      <c r="B26" s="131" t="s">
+      <c r="B26" s="118" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="132"/>
+      <c r="C26" s="119"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="68"/>
+      <c r="E26" s="67"/>
       <c r="F26" s="37"/>
-      <c r="G26" s="68"/>
+      <c r="G26" s="67"/>
       <c r="H26" s="38"/>
     </row>
-    <row r="27" spans="1:8" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="45" t="s">
         <v>40</v>
@@ -2087,12 +2117,12 @@
       <c r="D27" s="2">
         <v>2</v>
       </c>
-      <c r="E27" s="106"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="109"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="123"/>
       <c r="H27" s="38"/>
     </row>
-    <row r="28" spans="1:8" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="45" t="s">
         <v>42</v>
@@ -2103,12 +2133,12 @@
       <c r="D28" s="2">
         <v>2</v>
       </c>
-      <c r="E28" s="107"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="110"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="124"/>
       <c r="H28" s="38"/>
     </row>
-    <row r="29" spans="1:8" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="45" t="s">
         <v>44</v>
@@ -2119,12 +2149,12 @@
       <c r="D29" s="2">
         <v>2</v>
       </c>
-      <c r="E29" s="107"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="110"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="124"/>
       <c r="H29" s="38"/>
     </row>
-    <row r="30" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="45" t="s">
         <v>50</v>
@@ -2135,12 +2165,12 @@
       <c r="D30" s="2">
         <v>2</v>
       </c>
-      <c r="E30" s="108"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="111"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="125"/>
       <c r="H30" s="38"/>
     </row>
-    <row r="31" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="45"/>
       <c r="C31" s="46"/>
@@ -2161,21 +2191,21 @@
       </c>
       <c r="H31" s="38"/>
     </row>
-    <row r="32" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="34">
         <v>5</v>
       </c>
-      <c r="B32" s="131" t="s">
+      <c r="B32" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="132"/>
+      <c r="C32" s="119"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="68"/>
+      <c r="E32" s="67"/>
       <c r="F32" s="37"/>
       <c r="G32" s="36"/>
       <c r="H32" s="38"/>
     </row>
-    <row r="33" spans="1:8" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="45" t="s">
         <v>40</v>
@@ -2186,12 +2216,12 @@
       <c r="D33" s="2">
         <v>1</v>
       </c>
-      <c r="E33" s="106"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="109"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="123"/>
       <c r="H33" s="38"/>
     </row>
-    <row r="34" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="45" t="s">
         <v>42</v>
@@ -2202,12 +2232,12 @@
       <c r="D34" s="2">
         <v>1</v>
       </c>
-      <c r="E34" s="107"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="110"/>
+      <c r="E34" s="121"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="124"/>
       <c r="H34" s="38"/>
     </row>
-    <row r="35" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="45" t="s">
         <v>44</v>
@@ -2218,12 +2248,12 @@
       <c r="D35" s="2">
         <v>1</v>
       </c>
-      <c r="E35" s="107"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="110"/>
+      <c r="E35" s="121"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="124"/>
       <c r="H35" s="38"/>
     </row>
-    <row r="36" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="45" t="s">
         <v>50</v>
@@ -2234,12 +2264,12 @@
       <c r="D36" s="3">
         <v>1</v>
       </c>
-      <c r="E36" s="108"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="111"/>
+      <c r="E36" s="122"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="125"/>
       <c r="H36" s="38"/>
     </row>
-    <row r="37" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="45"/>
       <c r="C37" s="46"/>
@@ -2260,21 +2290,21 @@
       </c>
       <c r="H37" s="38"/>
     </row>
-    <row r="38" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="34">
         <v>6</v>
       </c>
-      <c r="B38" s="104" t="s">
+      <c r="B38" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="C38" s="105"/>
+      <c r="C38" s="117"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="68"/>
+      <c r="E38" s="67"/>
       <c r="F38" s="37"/>
       <c r="G38" s="36"/>
       <c r="H38" s="38"/>
     </row>
-    <row r="39" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
       <c r="B39" s="45" t="s">
         <v>40</v>
@@ -2285,12 +2315,12 @@
       <c r="D39" s="2">
         <v>1</v>
       </c>
-      <c r="E39" s="106"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="109"/>
+      <c r="E39" s="120"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="123"/>
       <c r="H39" s="48"/>
     </row>
-    <row r="40" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
       <c r="B40" s="45" t="s">
         <v>42</v>
@@ -2301,12 +2331,12 @@
       <c r="D40" s="2">
         <v>2</v>
       </c>
-      <c r="E40" s="107"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="110"/>
+      <c r="E40" s="121"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="124"/>
       <c r="H40" s="38"/>
     </row>
-    <row r="41" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
       <c r="B41" s="45" t="s">
         <v>44</v>
@@ -2317,12 +2347,12 @@
       <c r="D41" s="2">
         <v>2</v>
       </c>
-      <c r="E41" s="107"/>
-      <c r="F41" s="95"/>
-      <c r="G41" s="110"/>
+      <c r="E41" s="121"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="124"/>
       <c r="H41" s="38"/>
     </row>
-    <row r="42" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
       <c r="B42" s="45" t="s">
         <v>50</v>
@@ -2331,12 +2361,12 @@
         <v>65</v>
       </c>
       <c r="D42" s="2"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="110"/>
+      <c r="E42" s="121"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="124"/>
       <c r="H42" s="38"/>
     </row>
-    <row r="43" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
       <c r="B43" s="45"/>
       <c r="C43" s="50" t="s">
@@ -2345,12 +2375,12 @@
       <c r="D43" s="2">
         <v>2</v>
       </c>
-      <c r="E43" s="108"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="111"/>
+      <c r="E43" s="121"/>
+      <c r="F43" s="94"/>
+      <c r="G43" s="124"/>
       <c r="H43" s="38"/>
     </row>
-    <row r="44" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15"/>
       <c r="B44" s="45"/>
       <c r="C44" s="50" t="s">
@@ -2359,12 +2389,12 @@
       <c r="D44" s="2">
         <v>2</v>
       </c>
-      <c r="E44" s="106"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="109"/>
+      <c r="E44" s="121"/>
+      <c r="F44" s="94"/>
+      <c r="G44" s="124"/>
       <c r="H44" s="38"/>
     </row>
-    <row r="45" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15"/>
       <c r="B45" s="45"/>
       <c r="C45" s="50" t="s">
@@ -2373,12 +2403,12 @@
       <c r="D45" s="2">
         <v>2</v>
       </c>
-      <c r="E45" s="107"/>
-      <c r="F45" s="95"/>
-      <c r="G45" s="110"/>
+      <c r="E45" s="122"/>
+      <c r="F45" s="94"/>
+      <c r="G45" s="125"/>
       <c r="H45" s="38"/>
     </row>
-    <row r="46" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15"/>
       <c r="B46" s="45"/>
       <c r="C46" s="50" t="s">
@@ -2387,12 +2417,12 @@
       <c r="D46" s="2">
         <v>2</v>
       </c>
-      <c r="E46" s="107"/>
-      <c r="F46" s="95"/>
-      <c r="G46" s="110"/>
+      <c r="E46" s="132"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="134"/>
       <c r="H46" s="38"/>
     </row>
-    <row r="47" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15"/>
       <c r="B47" s="45"/>
       <c r="C47" s="50" t="s">
@@ -2401,12 +2431,12 @@
       <c r="D47" s="2">
         <v>2</v>
       </c>
-      <c r="E47" s="107"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="110"/>
+      <c r="E47" s="139"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="138"/>
       <c r="H47" s="38"/>
     </row>
-    <row r="48" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15"/>
       <c r="B48" s="45"/>
       <c r="C48" s="50" t="s">
@@ -2415,12 +2445,12 @@
       <c r="D48" s="2">
         <v>2</v>
       </c>
-      <c r="E48" s="107"/>
-      <c r="F48" s="95"/>
-      <c r="G48" s="110"/>
+      <c r="E48" s="139"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="138"/>
       <c r="H48" s="38"/>
     </row>
-    <row r="49" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
       <c r="B49" s="45"/>
       <c r="C49" s="50" t="s">
@@ -2429,12 +2459,12 @@
       <c r="D49" s="2">
         <v>2</v>
       </c>
-      <c r="E49" s="107"/>
-      <c r="F49" s="95"/>
-      <c r="G49" s="110"/>
+      <c r="E49" s="139"/>
+      <c r="F49" s="94"/>
+      <c r="G49" s="138"/>
       <c r="H49" s="38"/>
     </row>
-    <row r="50" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
       <c r="B50" s="45" t="s">
         <v>73</v>
@@ -2445,12 +2475,12 @@
       <c r="D50" s="2">
         <v>2</v>
       </c>
-      <c r="E50" s="107"/>
-      <c r="F50" s="95"/>
-      <c r="G50" s="110"/>
+      <c r="E50" s="139"/>
+      <c r="F50" s="94"/>
+      <c r="G50" s="138"/>
       <c r="H50" s="38"/>
     </row>
-    <row r="51" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
       <c r="B51" s="45" t="s">
         <v>75</v>
@@ -2461,12 +2491,12 @@
       <c r="D51" s="2">
         <v>2</v>
       </c>
-      <c r="E51" s="107"/>
-      <c r="F51" s="95"/>
-      <c r="G51" s="110"/>
+      <c r="E51" s="139"/>
+      <c r="F51" s="94"/>
+      <c r="G51" s="138"/>
       <c r="H51" s="38"/>
     </row>
-    <row r="52" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="15"/>
       <c r="B52" s="45" t="s">
         <v>77</v>
@@ -2477,12 +2507,12 @@
       <c r="D52" s="2">
         <v>2</v>
       </c>
-      <c r="E52" s="107"/>
-      <c r="F52" s="95"/>
-      <c r="G52" s="110"/>
+      <c r="E52" s="139"/>
+      <c r="F52" s="94"/>
+      <c r="G52" s="138"/>
       <c r="H52" s="38"/>
     </row>
-    <row r="53" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
       <c r="B53" s="45" t="s">
         <v>79</v>
@@ -2493,12 +2523,12 @@
       <c r="D53" s="2">
         <v>2</v>
       </c>
-      <c r="E53" s="107"/>
-      <c r="F53" s="95"/>
-      <c r="G53" s="110"/>
+      <c r="E53" s="139"/>
+      <c r="F53" s="94"/>
+      <c r="G53" s="138"/>
       <c r="H53" s="38"/>
     </row>
-    <row r="54" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
       <c r="B54" s="45" t="s">
         <v>81</v>
@@ -2509,12 +2539,12 @@
       <c r="D54" s="2">
         <v>2</v>
       </c>
-      <c r="E54" s="107"/>
-      <c r="F54" s="95"/>
-      <c r="G54" s="110"/>
+      <c r="E54" s="139"/>
+      <c r="F54" s="94"/>
+      <c r="G54" s="138"/>
       <c r="H54" s="38"/>
     </row>
-    <row r="55" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
       <c r="B55" s="45" t="s">
         <v>83</v>
@@ -2525,12 +2555,12 @@
       <c r="D55" s="2">
         <v>2</v>
       </c>
-      <c r="E55" s="108"/>
-      <c r="F55" s="95"/>
-      <c r="G55" s="111"/>
+      <c r="E55" s="133"/>
+      <c r="F55" s="94"/>
+      <c r="G55" s="135"/>
       <c r="H55" s="38"/>
     </row>
-    <row r="56" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="15"/>
       <c r="B56" s="45"/>
       <c r="C56" s="49"/>
@@ -2551,21 +2581,21 @@
       </c>
       <c r="H56" s="38"/>
     </row>
-    <row r="57" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="34">
         <v>7</v>
       </c>
-      <c r="B57" s="104" t="s">
+      <c r="B57" s="116" t="s">
         <v>136</v>
       </c>
-      <c r="C57" s="105"/>
+      <c r="C57" s="117"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="68"/>
+      <c r="E57" s="67"/>
       <c r="F57" s="37"/>
       <c r="G57" s="36"/>
       <c r="H57" s="38"/>
     </row>
-    <row r="58" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="15"/>
       <c r="B58" s="45" t="s">
         <v>40</v>
@@ -2576,12 +2606,12 @@
       <c r="D58" s="2">
         <v>1</v>
       </c>
-      <c r="E58" s="106"/>
-      <c r="F58" s="95"/>
-      <c r="G58" s="109"/>
+      <c r="E58" s="120"/>
+      <c r="F58" s="94"/>
+      <c r="G58" s="123"/>
       <c r="H58" s="38"/>
     </row>
-    <row r="59" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
       <c r="B59" s="45" t="s">
         <v>42</v>
@@ -2592,12 +2622,12 @@
       <c r="D59" s="2">
         <v>1</v>
       </c>
-      <c r="E59" s="107"/>
-      <c r="F59" s="95"/>
-      <c r="G59" s="110"/>
+      <c r="E59" s="121"/>
+      <c r="F59" s="94"/>
+      <c r="G59" s="124"/>
       <c r="H59" s="38"/>
     </row>
-    <row r="60" spans="1:8" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
       <c r="B60" s="45" t="s">
         <v>44</v>
@@ -2608,12 +2638,12 @@
       <c r="D60" s="2">
         <v>1</v>
       </c>
-      <c r="E60" s="107"/>
-      <c r="F60" s="95"/>
-      <c r="G60" s="110"/>
+      <c r="E60" s="121"/>
+      <c r="F60" s="94"/>
+      <c r="G60" s="124"/>
       <c r="H60" s="38"/>
     </row>
-    <row r="61" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="15"/>
       <c r="B61" s="45" t="s">
         <v>50</v>
@@ -2624,12 +2654,12 @@
       <c r="D61" s="3">
         <v>1</v>
       </c>
-      <c r="E61" s="108"/>
-      <c r="F61" s="95"/>
-      <c r="G61" s="111"/>
+      <c r="E61" s="122"/>
+      <c r="F61" s="94"/>
+      <c r="G61" s="125"/>
       <c r="H61" s="38"/>
     </row>
-    <row r="62" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="15"/>
       <c r="B62" s="45"/>
       <c r="C62" s="46"/>
@@ -2650,21 +2680,21 @@
       </c>
       <c r="H62" s="38"/>
     </row>
-    <row r="63" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="34">
         <v>8</v>
       </c>
-      <c r="B63" s="104" t="s">
+      <c r="B63" s="116" t="s">
         <v>137</v>
       </c>
-      <c r="C63" s="105"/>
+      <c r="C63" s="117"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="68"/>
+      <c r="E63" s="67"/>
       <c r="F63" s="37"/>
       <c r="G63" s="36"/>
       <c r="H63" s="38"/>
     </row>
-    <row r="64" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="15"/>
       <c r="B64" s="45" t="s">
         <v>40</v>
@@ -2675,12 +2705,12 @@
       <c r="D64" s="2">
         <v>2</v>
       </c>
-      <c r="E64" s="106"/>
-      <c r="F64" s="95"/>
-      <c r="G64" s="109"/>
+      <c r="E64" s="120"/>
+      <c r="F64" s="94"/>
+      <c r="G64" s="123"/>
       <c r="H64" s="38"/>
     </row>
-    <row r="65" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="15"/>
       <c r="B65" s="45" t="s">
         <v>42</v>
@@ -2691,12 +2721,12 @@
       <c r="D65" s="2">
         <v>2</v>
       </c>
-      <c r="E65" s="107"/>
-      <c r="F65" s="95"/>
-      <c r="G65" s="110"/>
+      <c r="E65" s="121"/>
+      <c r="F65" s="94"/>
+      <c r="G65" s="124"/>
       <c r="H65" s="38"/>
     </row>
-    <row r="66" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="15"/>
       <c r="B66" s="45" t="s">
         <v>44</v>
@@ -2707,12 +2737,12 @@
       <c r="D66" s="2">
         <v>2</v>
       </c>
-      <c r="E66" s="107"/>
-      <c r="F66" s="95"/>
-      <c r="G66" s="110"/>
+      <c r="E66" s="121"/>
+      <c r="F66" s="94"/>
+      <c r="G66" s="124"/>
       <c r="H66" s="38"/>
     </row>
-    <row r="67" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="15"/>
       <c r="B67" s="45" t="s">
         <v>50</v>
@@ -2723,12 +2753,12 @@
       <c r="D67" s="2">
         <v>2</v>
       </c>
-      <c r="E67" s="107"/>
-      <c r="F67" s="95"/>
-      <c r="G67" s="110"/>
+      <c r="E67" s="121"/>
+      <c r="F67" s="94"/>
+      <c r="G67" s="124"/>
       <c r="H67" s="38"/>
     </row>
-    <row r="68" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="15"/>
       <c r="B68" s="45" t="s">
         <v>73</v>
@@ -2739,12 +2769,12 @@
       <c r="D68" s="2">
         <v>1</v>
       </c>
-      <c r="E68" s="108"/>
-      <c r="F68" s="95"/>
-      <c r="G68" s="111"/>
+      <c r="E68" s="122"/>
+      <c r="F68" s="94"/>
+      <c r="G68" s="125"/>
       <c r="H68" s="38"/>
     </row>
-    <row r="69" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="15"/>
       <c r="B69" s="45"/>
       <c r="C69" s="46"/>
@@ -2765,21 +2795,21 @@
       </c>
       <c r="H69" s="38"/>
     </row>
-    <row r="70" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="34">
         <v>9</v>
       </c>
-      <c r="B70" s="104" t="s">
+      <c r="B70" s="116" t="s">
         <v>138</v>
       </c>
-      <c r="C70" s="105"/>
+      <c r="C70" s="117"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="68"/>
+      <c r="E70" s="67"/>
       <c r="F70" s="37"/>
       <c r="G70" s="36"/>
       <c r="H70" s="38"/>
     </row>
-    <row r="71" spans="1:8" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="15"/>
       <c r="B71" s="45" t="s">
         <v>40</v>
@@ -2790,12 +2820,12 @@
       <c r="D71" s="2">
         <v>2</v>
       </c>
-      <c r="E71" s="106"/>
-      <c r="F71" s="95"/>
-      <c r="G71" s="109"/>
+      <c r="E71" s="120"/>
+      <c r="F71" s="94"/>
+      <c r="G71" s="123"/>
       <c r="H71" s="38"/>
     </row>
-    <row r="72" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="15"/>
       <c r="B72" s="45" t="s">
         <v>42</v>
@@ -2806,12 +2836,12 @@
       <c r="D72" s="2">
         <v>2</v>
       </c>
-      <c r="E72" s="107"/>
-      <c r="F72" s="95"/>
-      <c r="G72" s="110"/>
+      <c r="E72" s="121"/>
+      <c r="F72" s="94"/>
+      <c r="G72" s="124"/>
       <c r="H72" s="38"/>
     </row>
-    <row r="73" spans="1:8" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="15"/>
       <c r="B73" s="45" t="s">
         <v>44</v>
@@ -2822,12 +2852,12 @@
       <c r="D73" s="2">
         <v>2</v>
       </c>
-      <c r="E73" s="107"/>
-      <c r="F73" s="95"/>
-      <c r="G73" s="110"/>
+      <c r="E73" s="121"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="124"/>
       <c r="H73" s="38"/>
     </row>
-    <row r="74" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="15"/>
       <c r="B74" s="45" t="s">
         <v>50</v>
@@ -2838,12 +2868,12 @@
       <c r="D74" s="3">
         <v>1</v>
       </c>
-      <c r="E74" s="108"/>
-      <c r="F74" s="95"/>
-      <c r="G74" s="111"/>
+      <c r="E74" s="122"/>
+      <c r="F74" s="94"/>
+      <c r="G74" s="125"/>
       <c r="H74" s="38"/>
     </row>
-    <row r="75" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="15"/>
       <c r="B75" s="45"/>
       <c r="C75" s="49"/>
@@ -2864,21 +2894,21 @@
       </c>
       <c r="H75" s="38"/>
     </row>
-    <row r="76" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="34">
         <v>10</v>
       </c>
-      <c r="B76" s="104" t="s">
+      <c r="B76" s="116" t="s">
         <v>139</v>
       </c>
-      <c r="C76" s="105"/>
+      <c r="C76" s="117"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="68"/>
+      <c r="E76" s="67"/>
       <c r="F76" s="37"/>
-      <c r="G76" s="68"/>
+      <c r="G76" s="67"/>
       <c r="H76" s="38"/>
     </row>
-    <row r="77" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="15"/>
       <c r="B77" s="45" t="s">
         <v>40</v>
@@ -2889,12 +2919,12 @@
       <c r="D77" s="2">
         <v>2</v>
       </c>
-      <c r="E77" s="106"/>
-      <c r="F77" s="95"/>
-      <c r="G77" s="109"/>
+      <c r="E77" s="120"/>
+      <c r="F77" s="94"/>
+      <c r="G77" s="123"/>
       <c r="H77" s="38"/>
     </row>
-    <row r="78" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="15"/>
       <c r="B78" s="45" t="s">
         <v>42</v>
@@ -2905,12 +2935,12 @@
       <c r="D78" s="2">
         <v>2</v>
       </c>
-      <c r="E78" s="107"/>
-      <c r="F78" s="95"/>
-      <c r="G78" s="110"/>
+      <c r="E78" s="121"/>
+      <c r="F78" s="94"/>
+      <c r="G78" s="124"/>
       <c r="H78" s="38"/>
     </row>
-    <row r="79" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="15"/>
       <c r="B79" s="45" t="s">
         <v>44</v>
@@ -2921,12 +2951,12 @@
       <c r="D79" s="2">
         <v>1</v>
       </c>
-      <c r="E79" s="107"/>
-      <c r="F79" s="95"/>
-      <c r="G79" s="110"/>
+      <c r="E79" s="121"/>
+      <c r="F79" s="94"/>
+      <c r="G79" s="124"/>
       <c r="H79" s="38"/>
     </row>
-    <row r="80" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="15"/>
       <c r="B80" s="45" t="s">
         <v>50</v>
@@ -2937,12 +2967,12 @@
       <c r="D80" s="2">
         <v>1</v>
       </c>
-      <c r="E80" s="108"/>
-      <c r="F80" s="95"/>
-      <c r="G80" s="111"/>
+      <c r="E80" s="122"/>
+      <c r="F80" s="94"/>
+      <c r="G80" s="125"/>
       <c r="H80" s="38"/>
     </row>
-    <row r="81" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="15"/>
       <c r="B81" s="45"/>
       <c r="C81" s="46"/>
@@ -2963,21 +2993,21 @@
       </c>
       <c r="H81" s="38"/>
     </row>
-    <row r="82" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="34">
         <v>11</v>
       </c>
-      <c r="B82" s="104" t="s">
+      <c r="B82" s="116" t="s">
         <v>140</v>
       </c>
-      <c r="C82" s="105"/>
+      <c r="C82" s="117"/>
       <c r="D82" s="1"/>
-      <c r="E82" s="68"/>
+      <c r="E82" s="67"/>
       <c r="F82" s="37"/>
-      <c r="G82" s="68"/>
+      <c r="G82" s="67"/>
       <c r="H82" s="38"/>
     </row>
-    <row r="83" spans="1:8" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="15"/>
       <c r="B83" s="45" t="s">
         <v>40</v>
@@ -2988,12 +3018,12 @@
       <c r="D83" s="2">
         <v>2</v>
       </c>
-      <c r="E83" s="106"/>
-      <c r="F83" s="95"/>
-      <c r="G83" s="109"/>
+      <c r="E83" s="120"/>
+      <c r="F83" s="94"/>
+      <c r="G83" s="123"/>
       <c r="H83" s="38"/>
     </row>
-    <row r="84" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="15"/>
       <c r="B84" s="45" t="s">
         <v>42</v>
@@ -3004,12 +3034,12 @@
       <c r="D84" s="2">
         <v>2</v>
       </c>
-      <c r="E84" s="107"/>
-      <c r="F84" s="95"/>
-      <c r="G84" s="110"/>
+      <c r="E84" s="121"/>
+      <c r="F84" s="94"/>
+      <c r="G84" s="124"/>
       <c r="H84" s="38"/>
     </row>
-    <row r="85" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="15"/>
       <c r="B85" s="45" t="s">
         <v>44</v>
@@ -3020,12 +3050,12 @@
       <c r="D85" s="2">
         <v>2</v>
       </c>
-      <c r="E85" s="108"/>
-      <c r="F85" s="95"/>
-      <c r="G85" s="111"/>
+      <c r="E85" s="122"/>
+      <c r="F85" s="94"/>
+      <c r="G85" s="125"/>
       <c r="H85" s="38"/>
     </row>
-    <row r="86" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="15"/>
       <c r="B86" s="45" t="s">
         <v>50</v>
@@ -3036,12 +3066,12 @@
       <c r="D86" s="2">
         <v>2</v>
       </c>
-      <c r="E86" s="130"/>
-      <c r="F86" s="95"/>
+      <c r="E86" s="97"/>
+      <c r="F86" s="94"/>
       <c r="G86" s="2"/>
       <c r="H86" s="38"/>
     </row>
-    <row r="87" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="15"/>
       <c r="B87" s="45"/>
       <c r="C87" s="46"/>
@@ -3062,21 +3092,21 @@
       </c>
       <c r="H87" s="38"/>
     </row>
-    <row r="88" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="34">
         <v>12</v>
       </c>
-      <c r="B88" s="104" t="s">
+      <c r="B88" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="C88" s="105"/>
+      <c r="C88" s="117"/>
       <c r="D88" s="1"/>
-      <c r="E88" s="68"/>
+      <c r="E88" s="67"/>
       <c r="F88" s="37"/>
       <c r="G88" s="36"/>
       <c r="H88" s="38"/>
     </row>
-    <row r="89" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="15"/>
       <c r="B89" s="45" t="s">
         <v>40</v>
@@ -3087,12 +3117,12 @@
       <c r="D89" s="2">
         <v>2</v>
       </c>
-      <c r="E89" s="106"/>
-      <c r="F89" s="95"/>
-      <c r="G89" s="109"/>
+      <c r="E89" s="136"/>
+      <c r="F89" s="94"/>
+      <c r="G89" s="137"/>
       <c r="H89" s="38"/>
     </row>
-    <row r="90" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="15"/>
       <c r="B90" s="45" t="s">
         <v>42</v>
@@ -3103,12 +3133,12 @@
       <c r="D90" s="2">
         <v>2</v>
       </c>
-      <c r="E90" s="107"/>
-      <c r="F90" s="95"/>
-      <c r="G90" s="110"/>
+      <c r="E90" s="132"/>
+      <c r="F90" s="94"/>
+      <c r="G90" s="134"/>
       <c r="H90" s="38"/>
     </row>
-    <row r="91" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="15"/>
       <c r="B91" s="45" t="s">
         <v>44</v>
@@ -3119,12 +3149,12 @@
       <c r="D91" s="2">
         <v>1</v>
       </c>
-      <c r="E91" s="107"/>
-      <c r="F91" s="95"/>
-      <c r="G91" s="110"/>
+      <c r="E91" s="139"/>
+      <c r="F91" s="94"/>
+      <c r="G91" s="138"/>
       <c r="H91" s="38"/>
     </row>
-    <row r="92" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="15"/>
       <c r="B92" s="45" t="s">
         <v>50</v>
@@ -3135,12 +3165,12 @@
       <c r="D92" s="2">
         <v>1</v>
       </c>
-      <c r="E92" s="108"/>
-      <c r="F92" s="95"/>
-      <c r="G92" s="111"/>
+      <c r="E92" s="133"/>
+      <c r="F92" s="94"/>
+      <c r="G92" s="135"/>
       <c r="H92" s="38"/>
     </row>
-    <row r="93" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="15"/>
       <c r="B93" s="45"/>
       <c r="C93" s="49"/>
@@ -3161,21 +3191,21 @@
       </c>
       <c r="H93" s="38"/>
     </row>
-    <row r="94" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="34">
         <v>13</v>
       </c>
-      <c r="B94" s="104" t="s">
+      <c r="B94" s="116" t="s">
         <v>141</v>
       </c>
-      <c r="C94" s="105"/>
+      <c r="C94" s="117"/>
       <c r="D94" s="1"/>
-      <c r="E94" s="68"/>
+      <c r="E94" s="67"/>
       <c r="F94" s="37"/>
-      <c r="G94" s="68"/>
+      <c r="G94" s="67"/>
       <c r="H94" s="38"/>
     </row>
-    <row r="95" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="15"/>
       <c r="B95" s="45" t="s">
         <v>40</v>
@@ -3186,12 +3216,12 @@
       <c r="D95" s="2">
         <v>1</v>
       </c>
-      <c r="E95" s="106"/>
-      <c r="F95" s="95"/>
-      <c r="G95" s="109"/>
+      <c r="E95" s="120"/>
+      <c r="F95" s="94"/>
+      <c r="G95" s="123"/>
       <c r="H95" s="38"/>
     </row>
-    <row r="96" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="15"/>
       <c r="B96" s="45" t="s">
         <v>42</v>
@@ -3202,12 +3232,12 @@
       <c r="D96" s="2">
         <v>1</v>
       </c>
-      <c r="E96" s="108"/>
-      <c r="F96" s="95"/>
-      <c r="G96" s="111"/>
+      <c r="E96" s="122"/>
+      <c r="F96" s="94"/>
+      <c r="G96" s="125"/>
       <c r="H96" s="38"/>
     </row>
-    <row r="97" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="15"/>
       <c r="B97" s="45"/>
       <c r="C97" s="46"/>
@@ -3228,21 +3258,21 @@
       </c>
       <c r="H97" s="38"/>
     </row>
-    <row r="98" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="34">
         <v>14</v>
       </c>
-      <c r="B98" s="104" t="s">
+      <c r="B98" s="116" t="s">
         <v>142</v>
       </c>
-      <c r="C98" s="105"/>
+      <c r="C98" s="117"/>
       <c r="D98" s="1"/>
-      <c r="E98" s="68"/>
+      <c r="E98" s="67"/>
       <c r="F98" s="37"/>
-      <c r="G98" s="68"/>
+      <c r="G98" s="67"/>
       <c r="H98" s="38"/>
     </row>
-    <row r="99" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="15"/>
       <c r="B99" s="45" t="s">
         <v>40</v>
@@ -3253,12 +3283,12 @@
       <c r="D99" s="2">
         <v>1</v>
       </c>
-      <c r="E99" s="106"/>
-      <c r="F99" s="95"/>
-      <c r="G99" s="109"/>
+      <c r="E99" s="120"/>
+      <c r="F99" s="94"/>
+      <c r="G99" s="123"/>
       <c r="H99" s="38"/>
     </row>
-    <row r="100" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="15"/>
       <c r="B100" s="45" t="s">
         <v>42</v>
@@ -3269,12 +3299,12 @@
       <c r="D100" s="2">
         <v>1</v>
       </c>
-      <c r="E100" s="107"/>
-      <c r="F100" s="95"/>
-      <c r="G100" s="110"/>
+      <c r="E100" s="121"/>
+      <c r="F100" s="94"/>
+      <c r="G100" s="124"/>
       <c r="H100" s="38"/>
     </row>
-    <row r="101" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="15"/>
       <c r="B101" s="45" t="s">
         <v>44</v>
@@ -3285,12 +3315,12 @@
       <c r="D101" s="2">
         <v>1</v>
       </c>
-      <c r="E101" s="108"/>
-      <c r="F101" s="95"/>
-      <c r="G101" s="111"/>
+      <c r="E101" s="122"/>
+      <c r="F101" s="94"/>
+      <c r="G101" s="125"/>
       <c r="H101" s="38"/>
     </row>
-    <row r="102" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="15"/>
       <c r="B102" s="45"/>
       <c r="C102" s="46"/>
@@ -3311,21 +3341,21 @@
       </c>
       <c r="H102" s="38"/>
     </row>
-    <row r="103" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="34">
         <v>15</v>
       </c>
-      <c r="B103" s="104" t="s">
+      <c r="B103" s="116" t="s">
         <v>143</v>
       </c>
-      <c r="C103" s="105"/>
+      <c r="C103" s="117"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="68"/>
+      <c r="E103" s="67"/>
       <c r="F103" s="37"/>
-      <c r="G103" s="68"/>
+      <c r="G103" s="67"/>
       <c r="H103" s="38"/>
     </row>
-    <row r="104" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="41"/>
       <c r="B104" s="42" t="s">
         <v>40</v>
@@ -3336,12 +3366,12 @@
       <c r="D104" s="2">
         <v>2</v>
       </c>
-      <c r="E104" s="106"/>
-      <c r="F104" s="95"/>
-      <c r="G104" s="109"/>
+      <c r="E104" s="120"/>
+      <c r="F104" s="94"/>
+      <c r="G104" s="123"/>
       <c r="H104" s="38"/>
     </row>
-    <row r="105" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="41"/>
       <c r="B105" s="42" t="s">
         <v>42</v>
@@ -3352,12 +3382,12 @@
       <c r="D105" s="2">
         <v>2</v>
       </c>
-      <c r="E105" s="107"/>
-      <c r="F105" s="95"/>
-      <c r="G105" s="110"/>
+      <c r="E105" s="121"/>
+      <c r="F105" s="94"/>
+      <c r="G105" s="124"/>
       <c r="H105" s="38"/>
     </row>
-    <row r="106" spans="1:8" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" s="41"/>
       <c r="B106" s="42" t="s">
         <v>44</v>
@@ -3368,12 +3398,12 @@
       <c r="D106" s="2">
         <v>2</v>
       </c>
-      <c r="E106" s="108"/>
-      <c r="F106" s="95"/>
-      <c r="G106" s="111"/>
+      <c r="E106" s="122"/>
+      <c r="F106" s="94"/>
+      <c r="G106" s="125"/>
       <c r="H106" s="38"/>
     </row>
-    <row r="107" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="41"/>
       <c r="B107" s="42"/>
       <c r="C107" s="28"/>
@@ -3394,7 +3424,7 @@
       </c>
       <c r="H107" s="38"/>
     </row>
-    <row r="108" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="15"/>
       <c r="B108" s="54"/>
       <c r="C108" s="49"/>
@@ -3416,62 +3446,62 @@
       </c>
       <c r="H108" s="38"/>
     </row>
-    <row r="109" spans="1:8" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="133" t="s">
+    <row r="109" spans="1:8" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="B109" s="133"/>
-      <c r="C109" s="133"/>
-      <c r="D109" s="133"/>
-      <c r="E109" s="133"/>
-      <c r="F109" s="133"/>
-      <c r="G109" s="133"/>
+      <c r="B109" s="140"/>
+      <c r="C109" s="140"/>
+      <c r="D109" s="140"/>
+      <c r="E109" s="140"/>
+      <c r="F109" s="140"/>
+      <c r="G109" s="140"/>
       <c r="H109" s="55"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B110" s="56"/>
     </row>
-    <row r="111" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="100" t="s">
+    <row r="111" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="B111" s="100"/>
-      <c r="C111" s="100"/>
-      <c r="D111" s="100"/>
-      <c r="E111" s="100"/>
+      <c r="B111" s="141"/>
+      <c r="C111" s="141"/>
+      <c r="D111" s="141"/>
+      <c r="E111" s="141"/>
       <c r="F111" s="62"/>
       <c r="G111" s="63" t="s">
         <v>20</v>
       </c>
       <c r="H111" s="64"/>
     </row>
-    <row r="112" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="100" t="s">
+    <row r="112" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="B112" s="100"/>
-      <c r="C112" s="100"/>
-      <c r="D112" s="100"/>
-      <c r="E112" s="100"/>
+      <c r="B112" s="141"/>
+      <c r="C112" s="141"/>
+      <c r="D112" s="141"/>
+      <c r="E112" s="141"/>
       <c r="F112" s="62"/>
       <c r="G112" s="63" t="s">
         <v>21</v>
       </c>
       <c r="H112" s="64"/>
     </row>
-    <row r="113" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="101" t="s">
+    <row r="113" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="B113" s="101"/>
-      <c r="C113" s="101"/>
-      <c r="D113" s="101"/>
-      <c r="E113" s="101"/>
-      <c r="F113" s="101"/>
-      <c r="G113" s="101"/>
+      <c r="B113" s="142"/>
+      <c r="C113" s="142"/>
+      <c r="D113" s="142"/>
+      <c r="E113" s="142"/>
+      <c r="F113" s="142"/>
+      <c r="G113" s="142"/>
       <c r="H113" s="64"/>
     </row>
-    <row r="114" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="17"/>
       <c r="B114" s="56"/>
       <c r="C114" s="57"/>
@@ -3483,7 +3513,7 @@
       <c r="J114" s="17"/>
       <c r="K114" s="17"/>
     </row>
-    <row r="115" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="17"/>
       <c r="B115" s="65"/>
       <c r="C115" s="57"/>
@@ -3495,20 +3525,115 @@
       <c r="J115" s="17"/>
       <c r="K115" s="17"/>
     </row>
-    <row r="119" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="17"/>
-      <c r="B119" s="66"/>
-      <c r="C119" s="67"/>
-      <c r="E119" s="59"/>
-      <c r="F119" s="60"/>
-      <c r="G119" s="61"/>
-      <c r="H119" s="17"/>
-      <c r="I119" s="17"/>
-      <c r="J119" s="17"/>
-      <c r="K119" s="17"/>
-    </row>
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="129" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="130" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="131" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="132" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="133" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="134" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="135" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="136" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="137" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="138" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="139" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="140" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="141" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="142" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="143" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="144" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="145" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="146" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="147" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="148" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="149" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="150" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="151" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="152" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="153" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="154" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="155" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="156" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="157" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="158" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="159" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="160" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="161" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="162" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="163" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="164" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="165" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="166" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="167" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="168" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="169" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="170" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="171" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="172" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="173" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="174" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="175" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="176" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="177" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="178" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="179" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="180" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="55">
+    <mergeCell ref="A109:G109"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="E99:E101"/>
+    <mergeCell ref="G99:G101"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="E104:E106"/>
+    <mergeCell ref="G104:G106"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="E77:E80"/>
+    <mergeCell ref="G77:G80"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="G83:G85"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="E64:E68"/>
+    <mergeCell ref="G64:G68"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="G71:G74"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="G58:G61"/>
+    <mergeCell ref="E39:E45"/>
+    <mergeCell ref="G39:G45"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="D12:G14"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A9:A10"/>
@@ -3522,57 +3647,9 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="G58:G61"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="E44:E55"/>
-    <mergeCell ref="G44:G55"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="E64:E68"/>
-    <mergeCell ref="G64:G68"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="G71:G74"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="E77:E80"/>
-    <mergeCell ref="G77:G80"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="G83:G85"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="E89:E92"/>
-    <mergeCell ref="G89:G92"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A109:G109"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A113:G113"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="E99:E101"/>
-    <mergeCell ref="G99:G101"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="E104:E106"/>
-    <mergeCell ref="G104:G106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3585,35 +3662,35 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="49.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="49.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="17" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="17" customWidth="1"/>
     <col min="6" max="6" width="7" style="17" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="27.42578125" style="17" customWidth="1"/>
-    <col min="11" max="11" width="27.140625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="17" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="6.5" style="17" customWidth="1"/>
+    <col min="10" max="10" width="27.5" style="17" customWidth="1"/>
+    <col min="11" max="11" width="27.1640625" style="17" customWidth="1"/>
     <col min="12" max="12" width="31" style="17" customWidth="1"/>
-    <col min="13" max="13" width="28.140625" style="17" customWidth="1"/>
-    <col min="14" max="14" width="26.140625" style="17" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="17"/>
+    <col min="13" max="13" width="28.1640625" style="17" customWidth="1"/>
+    <col min="14" max="14" width="26.1640625" style="17" customWidth="1"/>
+    <col min="15" max="16384" width="9.1640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H2" s="64"/>
       <c r="I2" s="64"/>
       <c r="J2" s="64"/>
@@ -3623,24 +3700,24 @@
       <c r="N2" s="64"/>
       <c r="O2" s="64"/>
     </row>
-    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="99" t="s">
+    <row r="3" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
       <c r="H3" s="64"/>
       <c r="I3" s="64"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
       <c r="O3" s="64"/>
     </row>
-    <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -3648,53 +3725,53 @@
       <c r="E4" s="16"/>
       <c r="H4" s="64"/>
       <c r="I4" s="64"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
       <c r="O4" s="64"/>
     </row>
-    <row r="5" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="90" t="s">
+    <row r="5" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="J5" s="88"/>
-    </row>
-    <row r="6" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="92" t="s">
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="J5" s="87"/>
+    </row>
+    <row r="6" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="89"/>
-      <c r="J6" s="88"/>
-    </row>
-    <row r="7" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="B6" s="90"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="88"/>
+      <c r="J6" s="87"/>
+    </row>
+    <row r="7" spans="1:15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="J7" s="88"/>
-    </row>
-    <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="J7" s="87"/>
+    </row>
+    <row r="8" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -3702,27 +3779,27 @@
       <c r="E8" s="16"/>
       <c r="H8" s="64"/>
       <c r="I8" s="64"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
       <c r="O8" s="64"/>
     </row>
-    <row r="9" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="74" t="s">
+    <row r="9" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="73" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="47"/>
@@ -3735,420 +3812,420 @@
       <c r="N9" s="64"/>
       <c r="O9" s="64"/>
     </row>
-    <row r="10" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="75">
+    <row r="10" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="74">
         <v>1</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="69">
+      <c r="C10" s="68">
         <v>0.05</v>
       </c>
-      <c r="D10" s="70">
+      <c r="D10" s="69">
         <f>'lembar kerja'!F21</f>
         <v>0</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="70">
         <f>'lembar kerja'!G21</f>
         <v>0</v>
       </c>
-      <c r="N10" s="77"/>
-    </row>
-    <row r="11" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="75">
+      <c r="N10" s="76"/>
+    </row>
+    <row r="11" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="74">
         <v>2</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="69">
+      <c r="C11" s="68">
         <v>0.05</v>
       </c>
-      <c r="D11" s="70">
+      <c r="D11" s="69">
         <f>'lembar kerja'!F25</f>
         <v>0</v>
       </c>
-      <c r="E11" s="71">
+      <c r="E11" s="70">
         <f>'lembar kerja'!G25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="75">
+    <row r="12" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="74">
         <v>3</v>
       </c>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="69">
+      <c r="C12" s="68">
         <v>0.05</v>
       </c>
-      <c r="D12" s="70">
+      <c r="D12" s="69">
         <f>'lembar kerja'!F31</f>
         <v>0</v>
       </c>
-      <c r="E12" s="71">
+      <c r="E12" s="70">
         <f>'lembar kerja'!G31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="75">
+    <row r="13" spans="1:15" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="74">
         <v>4</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="69">
+      <c r="C13" s="68">
         <v>0.05</v>
       </c>
-      <c r="D13" s="70">
+      <c r="D13" s="69">
         <f>'lembar kerja'!F37</f>
         <v>0</v>
       </c>
-      <c r="E13" s="71">
+      <c r="E13" s="70">
         <f>'lembar kerja'!G37</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="75">
+    <row r="14" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="74">
         <v>5</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="69">
+      <c r="C14" s="68">
         <v>0.25</v>
       </c>
-      <c r="D14" s="70">
+      <c r="D14" s="69">
         <f>'lembar kerja'!F56</f>
         <v>0</v>
       </c>
-      <c r="E14" s="71">
+      <c r="E14" s="70">
         <f>'lembar kerja'!G56</f>
         <v>0</v>
       </c>
-      <c r="G14" s="77"/>
-    </row>
-    <row r="15" spans="1:15" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="75">
+      <c r="G14" s="76"/>
+    </row>
+    <row r="15" spans="1:15" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="74">
         <v>6</v>
       </c>
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="69">
+      <c r="C15" s="68">
         <v>0.05</v>
       </c>
-      <c r="D15" s="70">
+      <c r="D15" s="69">
         <f>'lembar kerja'!F62</f>
         <v>0</v>
       </c>
-      <c r="E15" s="71">
+      <c r="E15" s="70">
         <f>'lembar kerja'!G62</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="75">
+    <row r="16" spans="1:15" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="74">
         <v>7</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="69">
+      <c r="C16" s="68">
         <v>0.1</v>
       </c>
-      <c r="D16" s="70">
+      <c r="D16" s="69">
         <f>'lembar kerja'!F69</f>
         <v>0</v>
       </c>
-      <c r="E16" s="71">
+      <c r="E16" s="70">
         <f>'lembar kerja'!G69</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="75">
+    <row r="17" spans="1:11" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="74">
         <v>8</v>
       </c>
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="69">
+      <c r="C17" s="68">
         <v>0.1</v>
       </c>
-      <c r="D17" s="70">
+      <c r="D17" s="69">
         <f>'lembar kerja'!F75</f>
         <v>0</v>
       </c>
-      <c r="E17" s="71">
+      <c r="E17" s="70">
         <f>'lembar kerja'!G75</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="75">
+    <row r="18" spans="1:11" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="74">
         <v>9</v>
       </c>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="69">
+      <c r="C18" s="68">
         <v>0.05</v>
       </c>
-      <c r="D18" s="70">
+      <c r="D18" s="69">
         <f>'lembar kerja'!F81</f>
         <v>0</v>
       </c>
-      <c r="E18" s="71">
+      <c r="E18" s="70">
         <f>'lembar kerja'!G81</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="75">
+    <row r="19" spans="1:11" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="74">
         <v>10</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="69">
+      <c r="C19" s="68">
         <v>0.05</v>
       </c>
-      <c r="D19" s="70">
+      <c r="D19" s="69">
         <f>'lembar kerja'!F87</f>
         <v>0</v>
       </c>
-      <c r="E19" s="71">
+      <c r="E19" s="70">
         <f>'lembar kerja'!G87</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="75">
+    <row r="20" spans="1:11" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="74">
         <v>11</v>
       </c>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="69">
+      <c r="C20" s="68">
         <v>0.05</v>
       </c>
-      <c r="D20" s="70">
+      <c r="D20" s="69">
         <f>'lembar kerja'!F93</f>
         <v>0</v>
       </c>
-      <c r="E20" s="71">
+      <c r="E20" s="70">
         <f>'lembar kerja'!G93</f>
         <v>0</v>
       </c>
       <c r="K20" s="17"/>
     </row>
-    <row r="21" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="75">
+    <row r="21" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="74">
         <v>12</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="69">
+      <c r="C21" s="68">
         <v>0.05</v>
       </c>
-      <c r="D21" s="70">
+      <c r="D21" s="69">
         <f>'lembar kerja'!F97</f>
         <v>0</v>
       </c>
-      <c r="E21" s="71">
+      <c r="E21" s="70">
         <f>'lembar kerja'!G97</f>
         <v>0</v>
       </c>
       <c r="K21" s="17"/>
     </row>
-    <row r="22" spans="1:11" s="39" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="75">
+    <row r="22" spans="1:11" s="39" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="74">
         <v>13</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="69">
+      <c r="C22" s="68">
         <v>0.05</v>
       </c>
-      <c r="D22" s="70">
+      <c r="D22" s="69">
         <f>'lembar kerja'!F102</f>
         <v>0</v>
       </c>
-      <c r="E22" s="71">
+      <c r="E22" s="70">
         <f>'lembar kerja'!G102</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="75">
+    <row r="23" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="74">
         <v>14</v>
       </c>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="69">
+      <c r="C23" s="68">
         <v>0.05</v>
       </c>
-      <c r="D23" s="70">
+      <c r="D23" s="69">
         <f>'lembar kerja'!F107</f>
         <v>0</v>
       </c>
-      <c r="E23" s="71">
+      <c r="E23" s="70">
         <f>'lembar kerja'!G107</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="75">
+    <row r="24" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="74">
         <v>15</v>
       </c>
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="75" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-    </row>
-    <row r="25" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="78" t="s">
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+    </row>
+    <row r="25" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="79"/>
-      <c r="C25" s="85">
+      <c r="B25" s="78"/>
+      <c r="C25" s="84">
         <f>SUM(E10:E23)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="87"/>
-    </row>
-    <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="100" t="s">
+      <c r="D25" s="85"/>
+      <c r="E25" s="86"/>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="100"/>
-      <c r="C27" s="100"/>
+      <c r="B27" s="126"/>
+      <c r="C27" s="126"/>
       <c r="D27" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="80"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="100" t="s">
+      <c r="E27" s="79"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="100"/>
-      <c r="C28" s="100"/>
+      <c r="B28" s="126"/>
+      <c r="C28" s="126"/>
       <c r="D28" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="80"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="101" t="s">
+      <c r="E28" s="79"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="80"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="102" t="s">
+      <c r="B29" s="127"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="79"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="103"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
-    </row>
-    <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="103"/>
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-    </row>
-    <row r="33" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="103"/>
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-    </row>
-    <row r="34" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="103"/>
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="98" t="s">
+      <c r="B31" s="130"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="130"/>
+    </row>
+    <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="130"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="130"/>
+    </row>
+    <row r="33" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="130"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="130"/>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="130"/>
+      <c r="B34" s="130"/>
+      <c r="C34" s="130"/>
+      <c r="D34" s="130"/>
+      <c r="E34" s="130"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="98"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="98"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="81" t="s">
+      <c r="B36" s="128"/>
+      <c r="C36" s="128"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="128"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="94" t="s">
+      <c r="C38" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="D38" s="94"/>
-    </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="81" t="s">
+      <c r="D38" s="93"/>
+    </row>
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="98" t="s">
+      <c r="C42" s="128" t="s">
         <v>123</v>
       </c>
-      <c r="D42" s="98"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="82" t="s">
+      <c r="D42" s="128"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="82"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="82"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="82" t="s">
+      <c r="B45" s="81"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="81"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="82" t="s">
+      <c r="B46" s="81"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="82"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="82"/>
-    </row>
-    <row r="109" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B47" s="81"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="81"/>
+    </row>
+    <row r="109" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C42:D42"/>
@@ -4166,51 +4243,26 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3">JDHWM6R55FRK-3-1088</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3">
+      <Url>http://intra-ecorr.pertamina.com:1043/sites/DIR/_layouts/DocIdRedir.aspx?ID=JDHWM6R55FRK-3-1088</Url>
+      <Description>JDHWM6R55FRK-3-1088</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D3398B66F6FF2D41BB4BC1F9AFA58185" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3a6c582f2b0bd71f194a9173d25feba3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bbc7d0c2066ec31eb77a1a91b3421a26" ns2:_="">
     <xsd:import namespace="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3"/>
@@ -4355,36 +4407,77 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3">JDHWM6R55FRK-3-1088</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3">
-      <Url>http://intra-ecorr.pertamina.com:1043/sites/DIR/_layouts/DocIdRedir.aspx?ID=JDHWM6R55FRK-3-1088</Url>
-      <Description>JDHWM6R55FRK-3-1088</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4D54943-88EA-4931-8BEE-CED682156F79}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773F18DC-D9BB-499A-B20E-E4668A0C9651}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C492BA1-E5E0-4C08-BC3F-3A641F247190}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DCAF7A6-7EE9-4672-8432-C93937E1B2A3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4402,26 +4495,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C492BA1-E5E0-4C08-BC3F-3A641F247190}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4D54943-88EA-4931-8BEE-CED682156F79}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773F18DC-D9BB-499A-B20E-E4668A0C9651}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/excels/Form 1 - HSE plan.xlsx
+++ b/excels/Form 1 - HSE plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/ecsms/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF27A295-DC45-D246-BF50-04F41A803444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AE841C-61E9-1045-AE5C-FC745215C055}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -561,13 +561,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -880,520 +887,502 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1740,8 +1729,8 @@
   </sheetPr>
   <dimension ref="A3:K180"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A105" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A83" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1758,15 +1747,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
       <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -1780,72 +1769,72 @@
       <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="131" t="s">
+      <c r="A5" s="127" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="115" t="s">
+      <c r="B5" s="127"/>
+      <c r="C5" s="126" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
       <c r="H5" s="92"/>
       <c r="J5" s="87"/>
     </row>
     <row r="6" spans="1:10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="131" t="s">
+      <c r="A6" s="127" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="131"/>
-      <c r="C6" s="115" t="s">
+      <c r="B6" s="127"/>
+      <c r="C6" s="126" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
       <c r="H6" s="88"/>
       <c r="J6" s="87"/>
     </row>
     <row r="7" spans="1:10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="127" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="131"/>
-      <c r="C7" s="115" t="s">
+      <c r="B7" s="127"/>
+      <c r="C7" s="126" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
       <c r="H7" s="88"/>
       <c r="J7" s="87"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="111"/>
-      <c r="D9" s="114" t="s">
+      <c r="C9" s="117"/>
+      <c r="D9" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114" t="s">
+      <c r="E9" s="120"/>
+      <c r="F9" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="114"/>
+      <c r="G9" s="120"/>
       <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="109"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="113"/>
+      <c r="A10" s="115"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="119"/>
       <c r="D10" s="19" t="s">
         <v>37</v>
       </c>
@@ -1864,10 +1853,10 @@
       <c r="A11" s="23">
         <v>1</v>
       </c>
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="117"/>
+      <c r="C11" s="110"/>
       <c r="D11" s="23"/>
       <c r="E11" s="24"/>
       <c r="F11" s="25"/>
@@ -1882,10 +1871,10 @@
       <c r="C12" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="98"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="100"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="130"/>
       <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1896,10 +1885,10 @@
       <c r="C13" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="101"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="103"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="133"/>
       <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -1910,10 +1899,10 @@
       <c r="C14" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="106"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="136"/>
       <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1930,10 +1919,10 @@
       <c r="A16" s="34">
         <v>2</v>
       </c>
-      <c r="B16" s="118" t="s">
+      <c r="B16" s="111" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="119"/>
+      <c r="C16" s="112"/>
       <c r="D16" s="35"/>
       <c r="E16" s="36"/>
       <c r="F16" s="37"/>
@@ -1951,9 +1940,9 @@
       <c r="D17" s="2">
         <v>1</v>
       </c>
-      <c r="E17" s="120"/>
+      <c r="E17" s="98"/>
       <c r="F17" s="94"/>
-      <c r="G17" s="123"/>
+      <c r="G17" s="100"/>
       <c r="H17" s="38"/>
     </row>
     <row r="18" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -1967,9 +1956,9 @@
       <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="E18" s="121"/>
+      <c r="E18" s="105"/>
       <c r="F18" s="94"/>
-      <c r="G18" s="124"/>
+      <c r="G18" s="104"/>
       <c r="H18" s="44"/>
     </row>
     <row r="19" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -1983,9 +1972,9 @@
       <c r="D19" s="2">
         <v>1</v>
       </c>
-      <c r="E19" s="121"/>
+      <c r="E19" s="105"/>
       <c r="F19" s="94"/>
-      <c r="G19" s="124"/>
+      <c r="G19" s="104"/>
       <c r="H19" s="38"/>
     </row>
     <row r="20" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -1999,9 +1988,9 @@
       <c r="D20" s="2">
         <v>1</v>
       </c>
-      <c r="E20" s="122"/>
+      <c r="E20" s="99"/>
       <c r="F20" s="94"/>
-      <c r="G20" s="125"/>
+      <c r="G20" s="101"/>
       <c r="H20" s="38"/>
     </row>
     <row r="21" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -2029,10 +2018,10 @@
       <c r="A22" s="34">
         <v>3</v>
       </c>
-      <c r="B22" s="118" t="s">
+      <c r="B22" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="119"/>
+      <c r="C22" s="112"/>
       <c r="D22" s="1"/>
       <c r="E22" s="67"/>
       <c r="F22" s="37"/>
@@ -2050,9 +2039,9 @@
       <c r="D23" s="2">
         <v>1</v>
       </c>
-      <c r="E23" s="136"/>
+      <c r="E23" s="102"/>
       <c r="F23" s="94"/>
-      <c r="G23" s="137"/>
+      <c r="G23" s="103"/>
       <c r="H23" s="38"/>
     </row>
     <row r="24" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2066,9 +2055,9 @@
       <c r="D24" s="2">
         <v>1</v>
       </c>
-      <c r="E24" s="136"/>
+      <c r="E24" s="102"/>
       <c r="F24" s="94"/>
-      <c r="G24" s="137"/>
+      <c r="G24" s="103"/>
       <c r="H24" s="38"/>
     </row>
     <row r="25" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -2096,10 +2085,10 @@
       <c r="A26" s="34">
         <v>4</v>
       </c>
-      <c r="B26" s="118" t="s">
+      <c r="B26" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="119"/>
+      <c r="C26" s="112"/>
       <c r="D26" s="1"/>
       <c r="E26" s="67"/>
       <c r="F26" s="37"/>
@@ -2117,9 +2106,9 @@
       <c r="D27" s="2">
         <v>2</v>
       </c>
-      <c r="E27" s="120"/>
+      <c r="E27" s="98"/>
       <c r="F27" s="94"/>
-      <c r="G27" s="123"/>
+      <c r="G27" s="100"/>
       <c r="H27" s="38"/>
     </row>
     <row r="28" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2133,9 +2122,9 @@
       <c r="D28" s="2">
         <v>2</v>
       </c>
-      <c r="E28" s="121"/>
+      <c r="E28" s="105"/>
       <c r="F28" s="94"/>
-      <c r="G28" s="124"/>
+      <c r="G28" s="104"/>
       <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -2149,9 +2138,9 @@
       <c r="D29" s="2">
         <v>2</v>
       </c>
-      <c r="E29" s="121"/>
+      <c r="E29" s="105"/>
       <c r="F29" s="94"/>
-      <c r="G29" s="124"/>
+      <c r="G29" s="104"/>
       <c r="H29" s="38"/>
     </row>
     <row r="30" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2165,9 +2154,9 @@
       <c r="D30" s="2">
         <v>2</v>
       </c>
-      <c r="E30" s="122"/>
+      <c r="E30" s="99"/>
       <c r="F30" s="94"/>
-      <c r="G30" s="125"/>
+      <c r="G30" s="101"/>
       <c r="H30" s="38"/>
     </row>
     <row r="31" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -2195,10 +2184,10 @@
       <c r="A32" s="34">
         <v>5</v>
       </c>
-      <c r="B32" s="118" t="s">
+      <c r="B32" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="119"/>
+      <c r="C32" s="112"/>
       <c r="D32" s="1"/>
       <c r="E32" s="67"/>
       <c r="F32" s="37"/>
@@ -2216,9 +2205,9 @@
       <c r="D33" s="2">
         <v>1</v>
       </c>
-      <c r="E33" s="120"/>
+      <c r="E33" s="98"/>
       <c r="F33" s="94"/>
-      <c r="G33" s="123"/>
+      <c r="G33" s="100"/>
       <c r="H33" s="38"/>
     </row>
     <row r="34" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2232,9 +2221,9 @@
       <c r="D34" s="2">
         <v>1</v>
       </c>
-      <c r="E34" s="121"/>
+      <c r="E34" s="105"/>
       <c r="F34" s="94"/>
-      <c r="G34" s="124"/>
+      <c r="G34" s="104"/>
       <c r="H34" s="38"/>
     </row>
     <row r="35" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2248,9 +2237,9 @@
       <c r="D35" s="2">
         <v>1</v>
       </c>
-      <c r="E35" s="121"/>
+      <c r="E35" s="105"/>
       <c r="F35" s="94"/>
-      <c r="G35" s="124"/>
+      <c r="G35" s="104"/>
       <c r="H35" s="38"/>
     </row>
     <row r="36" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2264,9 +2253,9 @@
       <c r="D36" s="3">
         <v>1</v>
       </c>
-      <c r="E36" s="122"/>
+      <c r="E36" s="99"/>
       <c r="F36" s="94"/>
-      <c r="G36" s="125"/>
+      <c r="G36" s="101"/>
       <c r="H36" s="38"/>
     </row>
     <row r="37" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -2294,10 +2283,10 @@
       <c r="A38" s="34">
         <v>6</v>
       </c>
-      <c r="B38" s="116" t="s">
+      <c r="B38" s="109" t="s">
         <v>135</v>
       </c>
-      <c r="C38" s="117"/>
+      <c r="C38" s="110"/>
       <c r="D38" s="1"/>
       <c r="E38" s="67"/>
       <c r="F38" s="37"/>
@@ -2315,9 +2304,9 @@
       <c r="D39" s="2">
         <v>1</v>
       </c>
-      <c r="E39" s="120"/>
+      <c r="E39" s="98"/>
       <c r="F39" s="94"/>
-      <c r="G39" s="123"/>
+      <c r="G39" s="100"/>
       <c r="H39" s="48"/>
     </row>
     <row r="40" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -2331,9 +2320,9 @@
       <c r="D40" s="2">
         <v>2</v>
       </c>
-      <c r="E40" s="121"/>
+      <c r="E40" s="105"/>
       <c r="F40" s="94"/>
-      <c r="G40" s="124"/>
+      <c r="G40" s="104"/>
       <c r="H40" s="38"/>
     </row>
     <row r="41" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -2347,9 +2336,9 @@
       <c r="D41" s="2">
         <v>2</v>
       </c>
-      <c r="E41" s="121"/>
+      <c r="E41" s="105"/>
       <c r="F41" s="94"/>
-      <c r="G41" s="124"/>
+      <c r="G41" s="104"/>
       <c r="H41" s="38"/>
     </row>
     <row r="42" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -2361,9 +2350,9 @@
         <v>65</v>
       </c>
       <c r="D42" s="2"/>
-      <c r="E42" s="121"/>
+      <c r="E42" s="105"/>
       <c r="F42" s="94"/>
-      <c r="G42" s="124"/>
+      <c r="G42" s="104"/>
       <c r="H42" s="38"/>
     </row>
     <row r="43" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -2375,9 +2364,9 @@
       <c r="D43" s="2">
         <v>2</v>
       </c>
-      <c r="E43" s="121"/>
+      <c r="E43" s="105"/>
       <c r="F43" s="94"/>
-      <c r="G43" s="124"/>
+      <c r="G43" s="104"/>
       <c r="H43" s="38"/>
     </row>
     <row r="44" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -2389,9 +2378,9 @@
       <c r="D44" s="2">
         <v>2</v>
       </c>
-      <c r="E44" s="121"/>
+      <c r="E44" s="105"/>
       <c r="F44" s="94"/>
-      <c r="G44" s="124"/>
+      <c r="G44" s="104"/>
       <c r="H44" s="38"/>
     </row>
     <row r="45" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -2403,9 +2392,9 @@
       <c r="D45" s="2">
         <v>2</v>
       </c>
-      <c r="E45" s="122"/>
+      <c r="E45" s="105"/>
       <c r="F45" s="94"/>
-      <c r="G45" s="125"/>
+      <c r="G45" s="104"/>
       <c r="H45" s="38"/>
     </row>
     <row r="46" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -2417,9 +2406,9 @@
       <c r="D46" s="2">
         <v>2</v>
       </c>
-      <c r="E46" s="132"/>
+      <c r="E46" s="105"/>
       <c r="F46" s="94"/>
-      <c r="G46" s="134"/>
+      <c r="G46" s="104"/>
       <c r="H46" s="38"/>
     </row>
     <row r="47" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -2431,9 +2420,9 @@
       <c r="D47" s="2">
         <v>2</v>
       </c>
-      <c r="E47" s="139"/>
+      <c r="E47" s="105"/>
       <c r="F47" s="94"/>
-      <c r="G47" s="138"/>
+      <c r="G47" s="104"/>
       <c r="H47" s="38"/>
     </row>
     <row r="48" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -2445,9 +2434,9 @@
       <c r="D48" s="2">
         <v>2</v>
       </c>
-      <c r="E48" s="139"/>
+      <c r="E48" s="105"/>
       <c r="F48" s="94"/>
-      <c r="G48" s="138"/>
+      <c r="G48" s="104"/>
       <c r="H48" s="38"/>
     </row>
     <row r="49" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -2459,9 +2448,9 @@
       <c r="D49" s="2">
         <v>2</v>
       </c>
-      <c r="E49" s="139"/>
+      <c r="E49" s="105"/>
       <c r="F49" s="94"/>
-      <c r="G49" s="138"/>
+      <c r="G49" s="104"/>
       <c r="H49" s="38"/>
     </row>
     <row r="50" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2475,9 +2464,9 @@
       <c r="D50" s="2">
         <v>2</v>
       </c>
-      <c r="E50" s="139"/>
+      <c r="E50" s="105"/>
       <c r="F50" s="94"/>
-      <c r="G50" s="138"/>
+      <c r="G50" s="104"/>
       <c r="H50" s="38"/>
     </row>
     <row r="51" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2491,9 +2480,9 @@
       <c r="D51" s="2">
         <v>2</v>
       </c>
-      <c r="E51" s="139"/>
+      <c r="E51" s="105"/>
       <c r="F51" s="94"/>
-      <c r="G51" s="138"/>
+      <c r="G51" s="104"/>
       <c r="H51" s="38"/>
     </row>
     <row r="52" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -2507,9 +2496,9 @@
       <c r="D52" s="2">
         <v>2</v>
       </c>
-      <c r="E52" s="139"/>
+      <c r="E52" s="105"/>
       <c r="F52" s="94"/>
-      <c r="G52" s="138"/>
+      <c r="G52" s="104"/>
       <c r="H52" s="38"/>
     </row>
     <row r="53" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -2523,9 +2512,9 @@
       <c r="D53" s="2">
         <v>2</v>
       </c>
-      <c r="E53" s="139"/>
+      <c r="E53" s="105"/>
       <c r="F53" s="94"/>
-      <c r="G53" s="138"/>
+      <c r="G53" s="104"/>
       <c r="H53" s="38"/>
     </row>
     <row r="54" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -2539,9 +2528,9 @@
       <c r="D54" s="2">
         <v>2</v>
       </c>
-      <c r="E54" s="139"/>
+      <c r="E54" s="105"/>
       <c r="F54" s="94"/>
-      <c r="G54" s="138"/>
+      <c r="G54" s="104"/>
       <c r="H54" s="38"/>
     </row>
     <row r="55" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -2555,9 +2544,9 @@
       <c r="D55" s="2">
         <v>2</v>
       </c>
-      <c r="E55" s="133"/>
+      <c r="E55" s="99"/>
       <c r="F55" s="94"/>
-      <c r="G55" s="135"/>
+      <c r="G55" s="101"/>
       <c r="H55" s="38"/>
     </row>
     <row r="56" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -2585,10 +2574,10 @@
       <c r="A57" s="34">
         <v>7</v>
       </c>
-      <c r="B57" s="116" t="s">
+      <c r="B57" s="109" t="s">
         <v>136</v>
       </c>
-      <c r="C57" s="117"/>
+      <c r="C57" s="110"/>
       <c r="D57" s="1"/>
       <c r="E57" s="67"/>
       <c r="F57" s="37"/>
@@ -2606,9 +2595,9 @@
       <c r="D58" s="2">
         <v>1</v>
       </c>
-      <c r="E58" s="120"/>
+      <c r="E58" s="98"/>
       <c r="F58" s="94"/>
-      <c r="G58" s="123"/>
+      <c r="G58" s="100"/>
       <c r="H58" s="38"/>
     </row>
     <row r="59" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2622,9 +2611,9 @@
       <c r="D59" s="2">
         <v>1</v>
       </c>
-      <c r="E59" s="121"/>
+      <c r="E59" s="105"/>
       <c r="F59" s="94"/>
-      <c r="G59" s="124"/>
+      <c r="G59" s="104"/>
       <c r="H59" s="38"/>
     </row>
     <row r="60" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -2638,9 +2627,9 @@
       <c r="D60" s="2">
         <v>1</v>
       </c>
-      <c r="E60" s="121"/>
+      <c r="E60" s="105"/>
       <c r="F60" s="94"/>
-      <c r="G60" s="124"/>
+      <c r="G60" s="104"/>
       <c r="H60" s="38"/>
     </row>
     <row r="61" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2654,9 +2643,9 @@
       <c r="D61" s="3">
         <v>1</v>
       </c>
-      <c r="E61" s="122"/>
+      <c r="E61" s="99"/>
       <c r="F61" s="94"/>
-      <c r="G61" s="125"/>
+      <c r="G61" s="101"/>
       <c r="H61" s="38"/>
     </row>
     <row r="62" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -2684,10 +2673,10 @@
       <c r="A63" s="34">
         <v>8</v>
       </c>
-      <c r="B63" s="116" t="s">
+      <c r="B63" s="109" t="s">
         <v>137</v>
       </c>
-      <c r="C63" s="117"/>
+      <c r="C63" s="110"/>
       <c r="D63" s="1"/>
       <c r="E63" s="67"/>
       <c r="F63" s="37"/>
@@ -2705,9 +2694,9 @@
       <c r="D64" s="2">
         <v>2</v>
       </c>
-      <c r="E64" s="120"/>
+      <c r="E64" s="98"/>
       <c r="F64" s="94"/>
-      <c r="G64" s="123"/>
+      <c r="G64" s="100"/>
       <c r="H64" s="38"/>
     </row>
     <row r="65" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2721,9 +2710,9 @@
       <c r="D65" s="2">
         <v>2</v>
       </c>
-      <c r="E65" s="121"/>
+      <c r="E65" s="105"/>
       <c r="F65" s="94"/>
-      <c r="G65" s="124"/>
+      <c r="G65" s="104"/>
       <c r="H65" s="38"/>
     </row>
     <row r="66" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2737,9 +2726,9 @@
       <c r="D66" s="2">
         <v>2</v>
       </c>
-      <c r="E66" s="121"/>
+      <c r="E66" s="105"/>
       <c r="F66" s="94"/>
-      <c r="G66" s="124"/>
+      <c r="G66" s="104"/>
       <c r="H66" s="38"/>
     </row>
     <row r="67" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2753,9 +2742,9 @@
       <c r="D67" s="2">
         <v>2</v>
       </c>
-      <c r="E67" s="121"/>
+      <c r="E67" s="105"/>
       <c r="F67" s="94"/>
-      <c r="G67" s="124"/>
+      <c r="G67" s="104"/>
       <c r="H67" s="38"/>
     </row>
     <row r="68" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2769,9 +2758,9 @@
       <c r="D68" s="2">
         <v>1</v>
       </c>
-      <c r="E68" s="122"/>
+      <c r="E68" s="99"/>
       <c r="F68" s="94"/>
-      <c r="G68" s="125"/>
+      <c r="G68" s="101"/>
       <c r="H68" s="38"/>
     </row>
     <row r="69" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -2799,10 +2788,10 @@
       <c r="A70" s="34">
         <v>9</v>
       </c>
-      <c r="B70" s="116" t="s">
+      <c r="B70" s="109" t="s">
         <v>138</v>
       </c>
-      <c r="C70" s="117"/>
+      <c r="C70" s="110"/>
       <c r="D70" s="1"/>
       <c r="E70" s="67"/>
       <c r="F70" s="37"/>
@@ -2820,9 +2809,9 @@
       <c r="D71" s="2">
         <v>2</v>
       </c>
-      <c r="E71" s="120"/>
+      <c r="E71" s="98"/>
       <c r="F71" s="94"/>
-      <c r="G71" s="123"/>
+      <c r="G71" s="100"/>
       <c r="H71" s="38"/>
     </row>
     <row r="72" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2836,9 +2825,9 @@
       <c r="D72" s="2">
         <v>2</v>
       </c>
-      <c r="E72" s="121"/>
+      <c r="E72" s="105"/>
       <c r="F72" s="94"/>
-      <c r="G72" s="124"/>
+      <c r="G72" s="104"/>
       <c r="H72" s="38"/>
     </row>
     <row r="73" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -2852,9 +2841,9 @@
       <c r="D73" s="2">
         <v>2</v>
       </c>
-      <c r="E73" s="121"/>
+      <c r="E73" s="105"/>
       <c r="F73" s="94"/>
-      <c r="G73" s="124"/>
+      <c r="G73" s="104"/>
       <c r="H73" s="38"/>
     </row>
     <row r="74" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -2868,9 +2857,9 @@
       <c r="D74" s="3">
         <v>1</v>
       </c>
-      <c r="E74" s="122"/>
+      <c r="E74" s="99"/>
       <c r="F74" s="94"/>
-      <c r="G74" s="125"/>
+      <c r="G74" s="101"/>
       <c r="H74" s="38"/>
     </row>
     <row r="75" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -2898,10 +2887,10 @@
       <c r="A76" s="34">
         <v>10</v>
       </c>
-      <c r="B76" s="116" t="s">
+      <c r="B76" s="109" t="s">
         <v>139</v>
       </c>
-      <c r="C76" s="117"/>
+      <c r="C76" s="110"/>
       <c r="D76" s="1"/>
       <c r="E76" s="67"/>
       <c r="F76" s="37"/>
@@ -2919,9 +2908,9 @@
       <c r="D77" s="2">
         <v>2</v>
       </c>
-      <c r="E77" s="120"/>
+      <c r="E77" s="98"/>
       <c r="F77" s="94"/>
-      <c r="G77" s="123"/>
+      <c r="G77" s="100"/>
       <c r="H77" s="38"/>
     </row>
     <row r="78" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2935,9 +2924,9 @@
       <c r="D78" s="2">
         <v>2</v>
       </c>
-      <c r="E78" s="121"/>
+      <c r="E78" s="105"/>
       <c r="F78" s="94"/>
-      <c r="G78" s="124"/>
+      <c r="G78" s="104"/>
       <c r="H78" s="38"/>
     </row>
     <row r="79" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2951,9 +2940,9 @@
       <c r="D79" s="2">
         <v>1</v>
       </c>
-      <c r="E79" s="121"/>
+      <c r="E79" s="105"/>
       <c r="F79" s="94"/>
-      <c r="G79" s="124"/>
+      <c r="G79" s="104"/>
       <c r="H79" s="38"/>
     </row>
     <row r="80" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2967,9 +2956,9 @@
       <c r="D80" s="2">
         <v>1</v>
       </c>
-      <c r="E80" s="122"/>
+      <c r="E80" s="99"/>
       <c r="F80" s="94"/>
-      <c r="G80" s="125"/>
+      <c r="G80" s="101"/>
       <c r="H80" s="38"/>
     </row>
     <row r="81" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -2997,10 +2986,10 @@
       <c r="A82" s="34">
         <v>11</v>
       </c>
-      <c r="B82" s="116" t="s">
+      <c r="B82" s="109" t="s">
         <v>140</v>
       </c>
-      <c r="C82" s="117"/>
+      <c r="C82" s="110"/>
       <c r="D82" s="1"/>
       <c r="E82" s="67"/>
       <c r="F82" s="37"/>
@@ -3018,9 +3007,9 @@
       <c r="D83" s="2">
         <v>2</v>
       </c>
-      <c r="E83" s="120"/>
+      <c r="E83" s="98"/>
       <c r="F83" s="94"/>
-      <c r="G83" s="123"/>
+      <c r="G83" s="100"/>
       <c r="H83" s="38"/>
     </row>
     <row r="84" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -3034,9 +3023,9 @@
       <c r="D84" s="2">
         <v>2</v>
       </c>
-      <c r="E84" s="121"/>
+      <c r="E84" s="105"/>
       <c r="F84" s="94"/>
-      <c r="G84" s="124"/>
+      <c r="G84" s="104"/>
       <c r="H84" s="38"/>
     </row>
     <row r="85" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -3050,9 +3039,9 @@
       <c r="D85" s="2">
         <v>2</v>
       </c>
-      <c r="E85" s="122"/>
+      <c r="E85" s="99"/>
       <c r="F85" s="94"/>
-      <c r="G85" s="125"/>
+      <c r="G85" s="101"/>
       <c r="H85" s="38"/>
     </row>
     <row r="86" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -3096,10 +3085,10 @@
       <c r="A88" s="34">
         <v>12</v>
       </c>
-      <c r="B88" s="116" t="s">
+      <c r="B88" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="C88" s="117"/>
+      <c r="C88" s="110"/>
       <c r="D88" s="1"/>
       <c r="E88" s="67"/>
       <c r="F88" s="37"/>
@@ -3117,9 +3106,9 @@
       <c r="D89" s="2">
         <v>2</v>
       </c>
-      <c r="E89" s="136"/>
+      <c r="E89" s="102"/>
       <c r="F89" s="94"/>
-      <c r="G89" s="137"/>
+      <c r="G89" s="103"/>
       <c r="H89" s="38"/>
     </row>
     <row r="90" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -3133,9 +3122,9 @@
       <c r="D90" s="2">
         <v>2</v>
       </c>
-      <c r="E90" s="132"/>
+      <c r="E90" s="98"/>
       <c r="F90" s="94"/>
-      <c r="G90" s="134"/>
+      <c r="G90" s="100"/>
       <c r="H90" s="38"/>
     </row>
     <row r="91" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -3149,9 +3138,9 @@
       <c r="D91" s="2">
         <v>1</v>
       </c>
-      <c r="E91" s="139"/>
+      <c r="E91" s="105"/>
       <c r="F91" s="94"/>
-      <c r="G91" s="138"/>
+      <c r="G91" s="104"/>
       <c r="H91" s="38"/>
     </row>
     <row r="92" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -3165,9 +3154,9 @@
       <c r="D92" s="2">
         <v>1</v>
       </c>
-      <c r="E92" s="133"/>
+      <c r="E92" s="99"/>
       <c r="F92" s="94"/>
-      <c r="G92" s="135"/>
+      <c r="G92" s="101"/>
       <c r="H92" s="38"/>
     </row>
     <row r="93" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -3195,10 +3184,10 @@
       <c r="A94" s="34">
         <v>13</v>
       </c>
-      <c r="B94" s="116" t="s">
+      <c r="B94" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="C94" s="117"/>
+      <c r="C94" s="110"/>
       <c r="D94" s="1"/>
       <c r="E94" s="67"/>
       <c r="F94" s="37"/>
@@ -3216,9 +3205,9 @@
       <c r="D95" s="2">
         <v>1</v>
       </c>
-      <c r="E95" s="120"/>
+      <c r="E95" s="98"/>
       <c r="F95" s="94"/>
-      <c r="G95" s="123"/>
+      <c r="G95" s="100"/>
       <c r="H95" s="38"/>
     </row>
     <row r="96" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -3232,9 +3221,9 @@
       <c r="D96" s="2">
         <v>1</v>
       </c>
-      <c r="E96" s="122"/>
+      <c r="E96" s="99"/>
       <c r="F96" s="94"/>
-      <c r="G96" s="125"/>
+      <c r="G96" s="101"/>
       <c r="H96" s="38"/>
     </row>
     <row r="97" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -3262,10 +3251,10 @@
       <c r="A98" s="34">
         <v>14</v>
       </c>
-      <c r="B98" s="116" t="s">
+      <c r="B98" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="C98" s="117"/>
+      <c r="C98" s="110"/>
       <c r="D98" s="1"/>
       <c r="E98" s="67"/>
       <c r="F98" s="37"/>
@@ -3283,9 +3272,9 @@
       <c r="D99" s="2">
         <v>1</v>
       </c>
-      <c r="E99" s="120"/>
+      <c r="E99" s="98"/>
       <c r="F99" s="94"/>
-      <c r="G99" s="123"/>
+      <c r="G99" s="100"/>
       <c r="H99" s="38"/>
     </row>
     <row r="100" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -3299,9 +3288,9 @@
       <c r="D100" s="2">
         <v>1</v>
       </c>
-      <c r="E100" s="121"/>
+      <c r="E100" s="105"/>
       <c r="F100" s="94"/>
-      <c r="G100" s="124"/>
+      <c r="G100" s="104"/>
       <c r="H100" s="38"/>
     </row>
     <row r="101" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -3315,9 +3304,9 @@
       <c r="D101" s="2">
         <v>1</v>
       </c>
-      <c r="E101" s="122"/>
+      <c r="E101" s="99"/>
       <c r="F101" s="94"/>
-      <c r="G101" s="125"/>
+      <c r="G101" s="101"/>
       <c r="H101" s="38"/>
     </row>
     <row r="102" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -3345,10 +3334,10 @@
       <c r="A103" s="34">
         <v>15</v>
       </c>
-      <c r="B103" s="116" t="s">
+      <c r="B103" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="C103" s="117"/>
+      <c r="C103" s="110"/>
       <c r="D103" s="1"/>
       <c r="E103" s="67"/>
       <c r="F103" s="37"/>
@@ -3366,9 +3355,9 @@
       <c r="D104" s="2">
         <v>2</v>
       </c>
-      <c r="E104" s="120"/>
+      <c r="E104" s="98"/>
       <c r="F104" s="94"/>
-      <c r="G104" s="123"/>
+      <c r="G104" s="100"/>
       <c r="H104" s="38"/>
     </row>
     <row r="105" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -3382,9 +3371,9 @@
       <c r="D105" s="2">
         <v>2</v>
       </c>
-      <c r="E105" s="121"/>
+      <c r="E105" s="105"/>
       <c r="F105" s="94"/>
-      <c r="G105" s="124"/>
+      <c r="G105" s="104"/>
       <c r="H105" s="38"/>
     </row>
     <row r="106" spans="1:8" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -3398,9 +3387,9 @@
       <c r="D106" s="2">
         <v>2</v>
       </c>
-      <c r="E106" s="122"/>
+      <c r="E106" s="99"/>
       <c r="F106" s="94"/>
-      <c r="G106" s="125"/>
+      <c r="G106" s="101"/>
       <c r="H106" s="38"/>
     </row>
     <row r="107" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -3447,28 +3436,28 @@
       <c r="H108" s="38"/>
     </row>
     <row r="109" spans="1:8" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="140" t="s">
+      <c r="A109" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="B109" s="140"/>
-      <c r="C109" s="140"/>
-      <c r="D109" s="140"/>
-      <c r="E109" s="140"/>
-      <c r="F109" s="140"/>
-      <c r="G109" s="140"/>
+      <c r="B109" s="106"/>
+      <c r="C109" s="106"/>
+      <c r="D109" s="106"/>
+      <c r="E109" s="106"/>
+      <c r="F109" s="106"/>
+      <c r="G109" s="106"/>
       <c r="H109" s="55"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B110" s="56"/>
     </row>
     <row r="111" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="141" t="s">
+      <c r="A111" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="B111" s="141"/>
-      <c r="C111" s="141"/>
-      <c r="D111" s="141"/>
-      <c r="E111" s="141"/>
+      <c r="B111" s="107"/>
+      <c r="C111" s="107"/>
+      <c r="D111" s="107"/>
+      <c r="E111" s="107"/>
       <c r="F111" s="62"/>
       <c r="G111" s="63" t="s">
         <v>20</v>
@@ -3476,13 +3465,13 @@
       <c r="H111" s="64"/>
     </row>
     <row r="112" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="141" t="s">
+      <c r="A112" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="B112" s="141"/>
-      <c r="C112" s="141"/>
-      <c r="D112" s="141"/>
-      <c r="E112" s="141"/>
+      <c r="B112" s="107"/>
+      <c r="C112" s="107"/>
+      <c r="D112" s="107"/>
+      <c r="E112" s="107"/>
       <c r="F112" s="62"/>
       <c r="G112" s="63" t="s">
         <v>21</v>
@@ -3490,15 +3479,15 @@
       <c r="H112" s="64"/>
     </row>
     <row r="113" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="142" t="s">
+      <c r="A113" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="B113" s="142"/>
-      <c r="C113" s="142"/>
-      <c r="D113" s="142"/>
-      <c r="E113" s="142"/>
-      <c r="F113" s="142"/>
-      <c r="G113" s="142"/>
+      <c r="B113" s="108"/>
+      <c r="C113" s="108"/>
+      <c r="D113" s="108"/>
+      <c r="E113" s="108"/>
+      <c r="F113" s="108"/>
+      <c r="G113" s="108"/>
       <c r="H113" s="64"/>
     </row>
     <row r="114" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.2">
@@ -3591,50 +3580,8 @@
     <row r="179" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="180" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="A109:G109"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A113:G113"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="E99:E101"/>
-    <mergeCell ref="G99:G101"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="E104:E106"/>
-    <mergeCell ref="G104:G106"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="E77:E80"/>
-    <mergeCell ref="G77:G80"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="G83:G85"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="E64:E68"/>
-    <mergeCell ref="G64:G68"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="G71:G74"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="G58:G61"/>
-    <mergeCell ref="E39:E45"/>
-    <mergeCell ref="G39:G45"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D12:G14"/>
+  <mergeCells count="30">
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:C10"/>
@@ -3646,7 +3593,24 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="A109:G109"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B103:C103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -3701,13 +3665,13 @@
       <c r="O2" s="64"/>
     </row>
     <row r="3" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
       <c r="H3" s="64"/>
       <c r="I3" s="64"/>
       <c r="J3" s="72"/>
@@ -4109,75 +4073,75 @@
     </row>
     <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="126" t="s">
+      <c r="A27" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="126"/>
-      <c r="C27" s="126"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
       <c r="D27" s="63" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="79"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="126" t="s">
+      <c r="A28" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="126"/>
-      <c r="C28" s="126"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="122"/>
       <c r="D28" s="63" t="s">
         <v>21</v>
       </c>
       <c r="E28" s="79"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="127" t="s">
+      <c r="A29" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="127"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
       <c r="E29" s="79"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="129" t="s">
+      <c r="A31" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="130"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="130"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="125"/>
     </row>
     <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="130"/>
-      <c r="B32" s="130"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="130"/>
+      <c r="A32" s="125"/>
+      <c r="B32" s="125"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="125"/>
     </row>
     <row r="33" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="130"/>
-      <c r="B33" s="130"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="130"/>
+      <c r="A33" s="125"/>
+      <c r="B33" s="125"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="125"/>
     </row>
     <row r="34" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="130"/>
-      <c r="B34" s="130"/>
-      <c r="C34" s="130"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="130"/>
+      <c r="A34" s="125"/>
+      <c r="B34" s="125"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="125"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="128" t="s">
+      <c r="A36" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="128"/>
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="121"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="80" t="s">
@@ -4193,10 +4157,10 @@
       <c r="A42" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="128" t="s">
+      <c r="C42" s="121" t="s">
         <v>123</v>
       </c>
-      <c r="D42" s="128"/>
+      <c r="D42" s="121"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="81" t="s">
@@ -4243,26 +4207,51 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3">JDHWM6R55FRK-3-1088</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3">
-      <Url>http://intra-ecorr.pertamina.com:1043/sites/DIR/_layouts/DocIdRedir.aspx?ID=JDHWM6R55FRK-3-1088</Url>
-      <Description>JDHWM6R55FRK-3-1088</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D3398B66F6FF2D41BB4BC1F9AFA58185" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3a6c582f2b0bd71f194a9173d25feba3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bbc7d0c2066ec31eb77a1a91b3421a26" ns2:_="">
     <xsd:import namespace="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3"/>
@@ -4407,77 +4396,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3">JDHWM6R55FRK-3-1088</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3">
+      <Url>http://intra-ecorr.pertamina.com:1043/sites/DIR/_layouts/DocIdRedir.aspx?ID=JDHWM6R55FRK-3-1088</Url>
+      <Description>JDHWM6R55FRK-3-1088</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773F18DC-D9BB-499A-B20E-E4668A0C9651}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4D54943-88EA-4931-8BEE-CED682156F79}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C492BA1-E5E0-4C08-BC3F-3A641F247190}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DCAF7A6-7EE9-4672-8432-C93937E1B2A3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4495,10 +4443,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C492BA1-E5E0-4C08-BC3F-3A641F247190}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f8ce19fc-6d1c-4a32-9ccc-c9d52d339ce3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4D54943-88EA-4931-8BEE-CED682156F79}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773F18DC-D9BB-499A-B20E-E4668A0C9651}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>